--- a/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567322799553665</v>
+        <v>3.469501867783663</v>
       </c>
       <c r="C2">
-        <v>0.6403844818218829</v>
+        <v>0.9133946575041136</v>
       </c>
       <c r="D2">
-        <v>0.3340049599323436</v>
+        <v>0.04448937295203592</v>
       </c>
       <c r="E2">
-        <v>0.2010331850242224</v>
+        <v>0.1194226315600844</v>
       </c>
       <c r="F2">
-        <v>6.518123767298107</v>
+        <v>2.385371496085085</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2264828957787444</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9904599414115225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.597347375385993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192816826049068</v>
+        <v>2.999062363887731</v>
       </c>
       <c r="C3">
-        <v>0.5462845433522432</v>
+        <v>0.7881602873435725</v>
       </c>
       <c r="D3">
-        <v>0.2945346180772077</v>
+        <v>0.03953550133568484</v>
       </c>
       <c r="E3">
-        <v>0.1739465713803909</v>
+        <v>0.106159369488612</v>
       </c>
       <c r="F3">
-        <v>5.688664823310859</v>
+        <v>2.171653117291697</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2011895245865958</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8469051482029002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.456550615903495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969304830060651</v>
+        <v>2.714440854158568</v>
       </c>
       <c r="C4">
-        <v>0.4901942494324487</v>
+        <v>0.71225707737878</v>
       </c>
       <c r="D4">
-        <v>0.2709809819063764</v>
+        <v>0.03651178335949368</v>
       </c>
       <c r="E4">
-        <v>0.157807364147807</v>
+        <v>0.09820746172580286</v>
       </c>
       <c r="F4">
-        <v>5.193410502040393</v>
+        <v>2.046642537186273</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1861396958343846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7612921904015195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.374530033914453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.879585232494946</v>
+        <v>2.599360116325954</v>
       </c>
       <c r="C5">
-        <v>0.4676879109450738</v>
+        <v>0.6815332515928105</v>
       </c>
       <c r="D5">
-        <v>0.2615254139065541</v>
+        <v>0.03528348093252021</v>
       </c>
       <c r="E5">
-        <v>0.1513353218760756</v>
+        <v>0.09500986351516971</v>
       </c>
       <c r="F5">
-        <v>4.994570983839708</v>
+        <v>1.997106074175008</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1801140760384285</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7269407113842234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.342108350491614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.86476283746768</v>
+        <v>2.580301332058752</v>
       </c>
       <c r="C6">
-        <v>0.4639699749492081</v>
+        <v>0.6764429585979599</v>
       </c>
       <c r="D6">
-        <v>0.259963172123193</v>
+        <v>0.03507973997410829</v>
       </c>
       <c r="E6">
-        <v>0.1502664640644085</v>
+        <v>0.09448134659252716</v>
       </c>
       <c r="F6">
-        <v>4.961719020888665</v>
+        <v>1.988961224782088</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.179119636335038</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7212663909488697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.336782227092641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968089634393493</v>
+        <v>2.712885370686536</v>
       </c>
       <c r="C7">
-        <v>0.489889390473337</v>
+        <v>0.7118419380146577</v>
       </c>
       <c r="D7">
-        <v>0.2708529182435058</v>
+        <v>0.03649520308560739</v>
       </c>
       <c r="E7">
-        <v>0.1577196788981752</v>
+        <v>0.09816417094800656</v>
       </c>
       <c r="F7">
-        <v>5.190717493021765</v>
+        <v>2.045968972886172</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1860580146732502</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7608268650671519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.374088865158726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.436693289733057</v>
+        <v>3.306315774470704</v>
       </c>
       <c r="C8">
-        <v>0.6075412672165328</v>
+        <v>0.8699815596813494</v>
       </c>
       <c r="D8">
-        <v>0.320235842585717</v>
+        <v>0.0427771385086757</v>
       </c>
       <c r="E8">
-        <v>0.1915794440844465</v>
+        <v>0.114806264591035</v>
       </c>
       <c r="F8">
-        <v>6.228860909848947</v>
+        <v>2.310293294892119</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2176535046143186</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9403729567673196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.547811044467153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.420220839856654</v>
+        <v>4.511681613244207</v>
       </c>
       <c r="C9">
-        <v>0.8555642638527559</v>
+        <v>1.190098909305277</v>
       </c>
       <c r="D9">
-        <v>0.4239881147745876</v>
+        <v>0.05527231930122412</v>
       </c>
       <c r="E9">
-        <v>0.2628817578614004</v>
+        <v>0.1492351669953749</v>
       </c>
       <c r="F9">
-        <v>8.404953572649845</v>
+        <v>2.885817952059568</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.284107931587215</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.317827578950855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.929251790182974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.205059692867508</v>
+        <v>5.43554957786489</v>
       </c>
       <c r="C10">
-        <v>1.055014523894499</v>
+        <v>1.434821060508057</v>
       </c>
       <c r="D10">
-        <v>0.5069578932668151</v>
+        <v>0.06461548069707135</v>
       </c>
       <c r="E10">
-        <v>0.3199365437950163</v>
+        <v>0.1760566620190644</v>
       </c>
       <c r="F10">
-        <v>10.13775005213827</v>
+        <v>3.356030807511814</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3367609813586796</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.619540956318673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.243285004846797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.582235339107569</v>
+        <v>5.867564275935081</v>
       </c>
       <c r="C11">
-        <v>1.151444947855168</v>
+        <v>1.549134911417525</v>
       </c>
       <c r="D11">
-        <v>0.5468937853424904</v>
+        <v>0.06891624642902627</v>
       </c>
       <c r="E11">
-        <v>0.3473894711590546</v>
+        <v>0.1887043022682349</v>
       </c>
       <c r="F11">
-        <v>10.96904575498542</v>
+        <v>3.583536259959516</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.361833667049666</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.76468148595616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.395845605740021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.728671303095894</v>
+        <v>6.03318089527346</v>
       </c>
       <c r="C12">
-        <v>1.188992628596111</v>
+        <v>1.59294270040516</v>
       </c>
       <c r="D12">
-        <v>0.5624095337821018</v>
+        <v>0.07055356156699588</v>
       </c>
       <c r="E12">
-        <v>0.3580524465233452</v>
+        <v>0.1935690736131477</v>
       </c>
       <c r="F12">
-        <v>11.29150870771605</v>
+        <v>3.671969305491132</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3715176123564561</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.821055196511338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.455245391546285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.69696010869751</v>
+        <v>5.997416597981953</v>
       </c>
       <c r="C13">
-        <v>1.180856245325742</v>
+        <v>1.583483214057139</v>
       </c>
       <c r="D13">
-        <v>0.5590490345168178</v>
+        <v>0.07020052370988594</v>
       </c>
       <c r="E13">
-        <v>0.3557431490842404</v>
+        <v>0.1925178085792041</v>
       </c>
       <c r="F13">
-        <v>11.22169218015699</v>
+        <v>3.652816459962509</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3694230762642832</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.808846170468996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.442376063306753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.594205740234713</v>
+        <v>5.881147036741595</v>
       </c>
       <c r="C14">
-        <v>1.154511944142712</v>
+        <v>1.552728024972055</v>
       </c>
       <c r="D14">
-        <v>0.5481618922446501</v>
+        <v>0.06905076571993618</v>
       </c>
       <c r="E14">
-        <v>0.348261027514674</v>
+        <v>0.1891029488815335</v>
       </c>
       <c r="F14">
-        <v>10.99541157538704</v>
+        <v>3.590763926703147</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.362626395891283</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.769289258678867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.400698363487137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.531759480018252</v>
+        <v>5.810202670829824</v>
       </c>
       <c r="C15">
-        <v>1.138516809184239</v>
+        <v>1.533960162379174</v>
       </c>
       <c r="D15">
-        <v>0.5415469773876112</v>
+        <v>0.06834768656059964</v>
       </c>
       <c r="E15">
-        <v>0.3437145397217449</v>
+        <v>0.1870214272988662</v>
       </c>
       <c r="F15">
-        <v>10.85785663679366</v>
+        <v>3.5530626181245</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3584888223766143</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.74525276076136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.375389158572531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.180872905401316</v>
+        <v>5.407580063510011</v>
       </c>
       <c r="C16">
-        <v>1.048844255823525</v>
+        <v>1.427417885819239</v>
       </c>
       <c r="D16">
-        <v>0.5043983521626956</v>
+        <v>0.06433555051751938</v>
       </c>
       <c r="E16">
-        <v>0.3181767391640449</v>
+        <v>0.1752400106875953</v>
       </c>
       <c r="F16">
-        <v>10.08440813786041</v>
+        <v>3.341463238281563</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3351472951424768</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.610236750044422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.233529207045706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.971232549630543</v>
+        <v>5.16381358027013</v>
       </c>
       <c r="C17">
-        <v>0.9954286127736225</v>
+        <v>1.362882760906473</v>
       </c>
       <c r="D17">
-        <v>0.4822204202977503</v>
+        <v>0.06188813297460882</v>
       </c>
       <c r="E17">
-        <v>0.3029271787291989</v>
+        <v>0.168134278726761</v>
       </c>
       <c r="F17">
-        <v>9.621900042014886</v>
+        <v>3.215354536833274</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3211338626989146</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.529607979293445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.14914329542114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.852498704201423</v>
+        <v>5.02468812876532</v>
       </c>
       <c r="C18">
-        <v>0.9652265979968604</v>
+        <v>1.326039024598856</v>
       </c>
       <c r="D18">
-        <v>0.4696651045522913</v>
+        <v>0.06048509918365141</v>
       </c>
       <c r="E18">
-        <v>0.2942933911938255</v>
+        <v>0.1640885069220346</v>
       </c>
       <c r="F18">
-        <v>9.359823249952257</v>
+        <v>3.14407840349628</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3131772498699945</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.483955223041718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.101504418366119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.812595369342432</v>
+        <v>4.977759214335322</v>
       </c>
       <c r="C19">
-        <v>0.9550845651533848</v>
+        <v>1.313609111095047</v>
       </c>
       <c r="D19">
-        <v>0.4654464934756675</v>
+        <v>0.0600108152422294</v>
       </c>
       <c r="E19">
-        <v>0.2913923378311196</v>
+        <v>0.1627254497629309</v>
       </c>
       <c r="F19">
-        <v>9.271726262763053</v>
+        <v>3.120152501714614</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3105002664223946</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.468614657267651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.085522358364514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993353459505613</v>
+        <v>5.189648638492315</v>
       </c>
       <c r="C20">
-        <v>1.001059473373601</v>
+        <v>1.369723550090782</v>
       </c>
       <c r="D20">
-        <v>0.4845600048423933</v>
+        <v>0.06214817310159049</v>
       </c>
       <c r="E20">
-        <v>0.3045359667897429</v>
+        <v>0.1688863502824702</v>
       </c>
       <c r="F20">
-        <v>9.670716768668314</v>
+        <v>3.228646596382333</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3226147086157312</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.538114432691742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.158031840189082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624282777541055</v>
+        <v>5.915240434396821</v>
       </c>
       <c r="C21">
-        <v>1.162219959282766</v>
+        <v>1.561746679999885</v>
       </c>
       <c r="D21">
-        <v>0.5513483385755933</v>
+        <v>0.06938822853057047</v>
       </c>
       <c r="E21">
-        <v>0.3504509858644695</v>
+        <v>0.1901038322971331</v>
       </c>
       <c r="F21">
-        <v>11.06165403637158</v>
+        <v>3.608925490045578</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.364617355924949</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.780867217545619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.412893884191007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.058121945519019</v>
+        <v>6.401436391356015</v>
       </c>
       <c r="C22">
-        <v>1.273699713093549</v>
+        <v>1.690326182770548</v>
       </c>
       <c r="D22">
-        <v>0.5973386248233794</v>
+        <v>0.07417162369988262</v>
       </c>
       <c r="E22">
-        <v>0.3820496859465266</v>
+        <v>0.2044165807675995</v>
       </c>
       <c r="F22">
-        <v>12.0163688770586</v>
+        <v>3.870948591148846</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3931893599205409</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.947931728769177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.589088157005733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.824326087097347</v>
+        <v>6.140724180728796</v>
       </c>
       <c r="C23">
-        <v>1.213553484179215</v>
+        <v>1.621385373587884</v>
       </c>
       <c r="D23">
-        <v>0.5725479696839955</v>
+        <v>0.07161337603307061</v>
       </c>
       <c r="E23">
-        <v>0.3650189122134719</v>
+        <v>0.1967326343095195</v>
       </c>
       <c r="F23">
-        <v>11.50205841707242</v>
+        <v>3.729746415736145</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3778268269132212</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.857886632907551</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.494082305097066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.983347068327475</v>
+        <v>5.17796545876422</v>
       </c>
       <c r="C24">
-        <v>0.9985121963022436</v>
+        <v>1.366630031141256</v>
       </c>
       <c r="D24">
-        <v>0.4835016766742228</v>
+        <v>0.06203059654730225</v>
       </c>
       <c r="E24">
-        <v>0.3038082219704989</v>
+        <v>0.1685462168065897</v>
       </c>
       <c r="F24">
-        <v>9.648634918794528</v>
+        <v>3.222633463225861</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3219449091027258</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.534266499223861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.154010618579619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.145127747360846</v>
+        <v>4.179908394105212</v>
       </c>
       <c r="C25">
-        <v>0.7860020716546217</v>
+        <v>1.102100755251627</v>
       </c>
       <c r="D25">
-        <v>0.3949464668721561</v>
+        <v>0.05186791800263535</v>
       </c>
       <c r="E25">
-        <v>0.2429124213883469</v>
+        <v>0.1396878404580058</v>
       </c>
       <c r="F25">
-        <v>7.796754427442238</v>
+        <v>2.722806212820586</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2655450928529888</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.212176977132451</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.820844160271392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.469501867783663</v>
+        <v>0.811162616343438</v>
       </c>
       <c r="C2">
-        <v>0.9133946575041136</v>
+        <v>0.1478995411979298</v>
       </c>
       <c r="D2">
-        <v>0.04448937295203592</v>
+        <v>0.1281847269859959</v>
       </c>
       <c r="E2">
-        <v>0.1194226315600844</v>
+        <v>0.02906502333119043</v>
       </c>
       <c r="F2">
-        <v>2.385371496085085</v>
+        <v>2.782109812933271</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.08173801501836</v>
       </c>
       <c r="J2">
-        <v>0.2264828957787444</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8904830929484717</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1809548142491337</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1969270715524907</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.597347375385993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.999062363887731</v>
+        <v>0.7065094095358688</v>
       </c>
       <c r="C3">
-        <v>0.7881602873435725</v>
+        <v>0.1278713328463397</v>
       </c>
       <c r="D3">
-        <v>0.03953550133568484</v>
+        <v>0.1276343416430734</v>
       </c>
       <c r="E3">
-        <v>0.106159369488612</v>
+        <v>0.02844908256291667</v>
       </c>
       <c r="F3">
-        <v>2.171653117291697</v>
+        <v>2.578191394646495</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.958288412277213</v>
       </c>
       <c r="J3">
-        <v>0.2011895245865958</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7707005850062387</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1649868037689473</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1738378330786361</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.456550615903495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.714440854158568</v>
+        <v>0.6433719965680496</v>
       </c>
       <c r="C4">
-        <v>0.71225707737878</v>
+        <v>0.1157203281678107</v>
       </c>
       <c r="D4">
-        <v>0.03651178335949368</v>
+        <v>0.1272915690106373</v>
       </c>
       <c r="E4">
-        <v>0.09820746172580286</v>
+        <v>0.02809267632056667</v>
       </c>
       <c r="F4">
-        <v>2.046642537186273</v>
+        <v>2.455932305625268</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.884409237030454</v>
       </c>
       <c r="J4">
-        <v>0.1861396958343846</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6983133946469593</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.155422557430299</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1599427683104082</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.374530033914453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.599360116325954</v>
+        <v>0.6178953241197291</v>
       </c>
       <c r="C5">
-        <v>0.6815332515928105</v>
+        <v>0.1107992072501816</v>
       </c>
       <c r="D5">
-        <v>0.03528348093252021</v>
+        <v>0.1271504792373932</v>
       </c>
       <c r="E5">
-        <v>0.09500986351516971</v>
+        <v>0.0279526889325501</v>
       </c>
       <c r="F5">
-        <v>1.997106074175008</v>
+        <v>2.406787493535404</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.854745460046743</v>
       </c>
       <c r="J5">
-        <v>0.1801140760384285</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6690722435995013</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1515806555291661</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1543446808690554</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.342108350491614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.580301332058752</v>
+        <v>0.6136793641450708</v>
       </c>
       <c r="C6">
-        <v>0.6764429585979599</v>
+        <v>0.1099837261693608</v>
       </c>
       <c r="D6">
-        <v>0.03507973997410829</v>
+        <v>0.1271269610124897</v>
       </c>
       <c r="E6">
-        <v>0.09448134659252716</v>
+        <v>0.02792975494420791</v>
       </c>
       <c r="F6">
-        <v>1.988961224782088</v>
+        <v>2.398666106759336</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.849845422765938</v>
       </c>
       <c r="J6">
-        <v>0.179119636335038</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6642313476798591</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1509459352230991</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1534188197184463</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.336782227092641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.712885370686536</v>
+        <v>0.6430274248189392</v>
       </c>
       <c r="C7">
-        <v>0.7118419380146577</v>
+        <v>0.1156538446644646</v>
       </c>
       <c r="D7">
-        <v>0.03649520308560739</v>
+        <v>0.127289672167155</v>
       </c>
       <c r="E7">
-        <v>0.09816417094800656</v>
+        <v>0.02809076742891037</v>
       </c>
       <c r="F7">
-        <v>2.045968972886172</v>
+        <v>2.455266863382903</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.884007439955468</v>
       </c>
       <c r="J7">
-        <v>0.1860580146732502</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6979180405263037</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1553705251450026</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1598670187370921</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.374088865158726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.306315774470704</v>
+        <v>0.7748273922387625</v>
       </c>
       <c r="C8">
-        <v>0.8699815596813494</v>
+        <v>0.1409594873038742</v>
       </c>
       <c r="D8">
-        <v>0.0427771385086757</v>
+        <v>0.127995838291028</v>
       </c>
       <c r="E8">
-        <v>0.114806264591035</v>
+        <v>0.02884798421389512</v>
       </c>
       <c r="F8">
-        <v>2.310293294892119</v>
+        <v>2.711146738087251</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.038749234128701</v>
       </c>
       <c r="J8">
-        <v>0.2176535046143186</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8489198614500424</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.175396206549479</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1889032851876742</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.547811044467153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.511681613244207</v>
+        <v>1.043620411784474</v>
       </c>
       <c r="C9">
-        <v>1.190098909305277</v>
+        <v>0.1920569037529276</v>
       </c>
       <c r="D9">
-        <v>0.05527231930122412</v>
+        <v>0.1293515756952033</v>
       </c>
       <c r="E9">
-        <v>0.1492351669953749</v>
+        <v>0.03051687875207421</v>
       </c>
       <c r="F9">
-        <v>2.885817952059568</v>
+        <v>3.239480837221464</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.359393216692368</v>
       </c>
       <c r="J9">
-        <v>0.284107931587215</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.155934436377606</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2168076477481264</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2484047972235501</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.929251790182974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.43554957786489</v>
+        <v>1.249620517162782</v>
       </c>
       <c r="C10">
-        <v>1.434821060508057</v>
+        <v>0.2309757862672086</v>
       </c>
       <c r="D10">
-        <v>0.06461548069707135</v>
+        <v>0.1303439941727618</v>
       </c>
       <c r="E10">
-        <v>0.1760566620190644</v>
+        <v>0.03187221753192482</v>
       </c>
       <c r="F10">
-        <v>3.356030807511814</v>
+        <v>3.648671953759987</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.608454312146876</v>
       </c>
       <c r="J10">
-        <v>0.3367609813586796</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.39074967240154</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2488976937115126</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2941804811015842</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.243285004846797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.867564275935081</v>
+        <v>1.345738149209097</v>
       </c>
       <c r="C11">
-        <v>1.549134911417525</v>
+        <v>0.2491006490251948</v>
       </c>
       <c r="D11">
-        <v>0.06891624642902627</v>
+        <v>0.1307981581127109</v>
       </c>
       <c r="E11">
-        <v>0.1887043022682349</v>
+        <v>0.03252107419375783</v>
       </c>
       <c r="F11">
-        <v>3.583536259959516</v>
+        <v>3.840589805070493</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.725431277793149</v>
       </c>
       <c r="J11">
-        <v>0.361833667049666</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.500233269939571</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.263947139261191</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3155764190697781</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.395845605740021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.03318089527346</v>
+        <v>1.382532952720567</v>
       </c>
       <c r="C12">
-        <v>1.59294270040516</v>
+        <v>0.2560358248687891</v>
       </c>
       <c r="D12">
-        <v>0.07055356156699588</v>
+        <v>0.1309708510829637</v>
       </c>
       <c r="E12">
-        <v>0.1935690736131477</v>
+        <v>0.03277181506880744</v>
       </c>
       <c r="F12">
-        <v>3.671969305491132</v>
+        <v>3.914205838194221</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.770325272986071</v>
       </c>
       <c r="J12">
-        <v>0.3715176123564561</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.542135710176183</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2697191655464479</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.323772322334051</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.455245391546285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.997416597981953</v>
+        <v>1.37458999996619</v>
       </c>
       <c r="C13">
-        <v>1.583483214057139</v>
+        <v>0.2545388302554983</v>
       </c>
       <c r="D13">
-        <v>0.07020052370988594</v>
+        <v>0.130933621456677</v>
       </c>
       <c r="E13">
-        <v>0.1925178085792041</v>
+        <v>0.03271758310197903</v>
       </c>
       <c r="F13">
-        <v>3.652816459962509</v>
+        <v>3.898307577824056</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.760628813342009</v>
       </c>
       <c r="J13">
-        <v>0.3694230762642832</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.533090522857435</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2684726643716573</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3220028246100028</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.442376063306753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.881147036741595</v>
+        <v>1.348757009025917</v>
       </c>
       <c r="C14">
-        <v>1.552728024972055</v>
+        <v>0.2496697046899214</v>
       </c>
       <c r="D14">
-        <v>0.06905076571993618</v>
+        <v>0.1308123494557947</v>
       </c>
       <c r="E14">
-        <v>0.1891029488815335</v>
+        <v>0.03254159956951597</v>
       </c>
       <c r="F14">
-        <v>3.590763926703147</v>
+        <v>3.846626709206134</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.729112344244228</v>
       </c>
       <c r="J14">
-        <v>0.362626395891283</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.503671355221343</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2644204917624222</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3162487528354418</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.400698363487137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.810202670829824</v>
+        <v>1.332986881735764</v>
       </c>
       <c r="C15">
-        <v>1.533960162379174</v>
+        <v>0.2466969145106503</v>
       </c>
       <c r="D15">
-        <v>0.06834768656059964</v>
+        <v>0.1307381695604164</v>
       </c>
       <c r="E15">
-        <v>0.1870214272988662</v>
+        <v>0.03243447217814399</v>
       </c>
       <c r="F15">
-        <v>3.5530626181245</v>
+        <v>3.815096694267083</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.709887543833048</v>
       </c>
       <c r="J15">
-        <v>0.3584888223766143</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.48571090229251</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.261948200179404</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3127367830867485</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.375389158572531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.407580063510011</v>
+        <v>1.243391680300562</v>
       </c>
       <c r="C16">
-        <v>1.427417885819239</v>
+        <v>0.2298006758671249</v>
       </c>
       <c r="D16">
-        <v>0.06433555051751938</v>
+        <v>0.1303143947132703</v>
       </c>
       <c r="E16">
-        <v>0.1752400106875953</v>
+        <v>0.03183049553987516</v>
       </c>
       <c r="F16">
-        <v>3.341463238281563</v>
+        <v>3.63625506382823</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.600889296321895</v>
       </c>
       <c r="J16">
-        <v>0.3351472951424768</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.383653285893047</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2479239449166499</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2927946730284248</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.233529207045706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.16381358027013</v>
+        <v>1.189079089542787</v>
       </c>
       <c r="C17">
-        <v>1.362882760906473</v>
+        <v>0.2195506735790786</v>
       </c>
       <c r="D17">
-        <v>0.06188813297460882</v>
+        <v>0.1300553346328144</v>
       </c>
       <c r="E17">
-        <v>0.168134278726761</v>
+        <v>0.03146851344302348</v>
       </c>
       <c r="F17">
-        <v>3.215354536833274</v>
+        <v>3.528095700043366</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.535010956468682</v>
       </c>
       <c r="J17">
-        <v>0.3211338626989146</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.321767638996221</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.239441741186539</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2807151886165968</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.14914329542114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.02468812876532</v>
+        <v>1.158063143321016</v>
       </c>
       <c r="C18">
-        <v>1.326039024598856</v>
+        <v>0.2136939786710883</v>
       </c>
       <c r="D18">
-        <v>0.06048509918365141</v>
+        <v>0.1299065638972792</v>
       </c>
       <c r="E18">
-        <v>0.1640885069220346</v>
+        <v>0.0312633263607065</v>
       </c>
       <c r="F18">
-        <v>3.14407840349628</v>
+        <v>3.466421591909324</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.497461160094076</v>
       </c>
       <c r="J18">
-        <v>0.3131772498699945</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.286419531829296</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2346049637515648</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2738205106241125</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.101504418366119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.977759214335322</v>
+        <v>1.147598546859882</v>
       </c>
       <c r="C19">
-        <v>1.313609111095047</v>
+        <v>0.2117173503949772</v>
       </c>
       <c r="D19">
-        <v>0.0600108152422294</v>
+        <v>0.1298562235691314</v>
       </c>
       <c r="E19">
-        <v>0.1627254497629309</v>
+        <v>0.03119436026635825</v>
       </c>
       <c r="F19">
-        <v>3.120152501714614</v>
+        <v>3.445628722658853</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.484804153579404</v>
       </c>
       <c r="J19">
-        <v>0.3105002664223946</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.274491941327767</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2329742845156062</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2714948858098793</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.085522358364514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.189648638492315</v>
+        <v>1.194837302694168</v>
       </c>
       <c r="C20">
-        <v>1.369723550090782</v>
+        <v>0.2206377071612025</v>
       </c>
       <c r="D20">
-        <v>0.06214817310159049</v>
+        <v>0.1300828856024872</v>
       </c>
       <c r="E20">
-        <v>0.1688863502824702</v>
+        <v>0.03150673228511636</v>
       </c>
       <c r="F20">
-        <v>3.228646596382333</v>
+        <v>3.539553179613762</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.54198798136909</v>
       </c>
       <c r="J20">
-        <v>0.3226147086157312</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.328329505037487</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2403402866073776</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2819954934390339</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.158031840189082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.915240434396821</v>
+        <v>1.356333572885035</v>
       </c>
       <c r="C21">
-        <v>1.561746679999885</v>
+        <v>0.2510978437153852</v>
       </c>
       <c r="D21">
-        <v>0.06938822853057047</v>
+        <v>0.1308479479556084</v>
       </c>
       <c r="E21">
-        <v>0.1901038322971331</v>
+        <v>0.03259315032325105</v>
       </c>
       <c r="F21">
-        <v>3.608925490045578</v>
+        <v>3.861780159183326</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.738352701942276</v>
       </c>
       <c r="J21">
-        <v>0.364617355924949</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.512299933006688</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2656086588601454</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3179362224811229</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.412893884191007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.401436391356015</v>
+        <v>1.464223284156901</v>
       </c>
       <c r="C22">
-        <v>1.690326182770548</v>
+        <v>0.2714292812716934</v>
       </c>
       <c r="D22">
-        <v>0.07417162369988262</v>
+        <v>0.1313522790082544</v>
       </c>
       <c r="E22">
-        <v>0.2044165807675995</v>
+        <v>0.03333273222728472</v>
       </c>
       <c r="F22">
-        <v>3.870948591148846</v>
+        <v>4.077918304673148</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.870207323738768</v>
       </c>
       <c r="J22">
-        <v>0.3931893599205409</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.635152344775889</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2825536808061884</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3419780700748518</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.589088157005733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.140724180728796</v>
+        <v>1.40640786631468</v>
       </c>
       <c r="C23">
-        <v>1.621385373587884</v>
+        <v>0.2605351705413028</v>
       </c>
       <c r="D23">
-        <v>0.07161337603307061</v>
+        <v>0.1310825975175618</v>
       </c>
       <c r="E23">
-        <v>0.1967326343095195</v>
+        <v>0.03293516156053755</v>
       </c>
       <c r="F23">
-        <v>3.729746415736145</v>
+        <v>3.962014423934733</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.799487519615525</v>
       </c>
       <c r="J23">
-        <v>0.3778268269132212</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.569322620951738</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2734674610273657</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3290918332981576</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.494082305097066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.17796545876422</v>
+        <v>1.192233367060027</v>
       </c>
       <c r="C24">
-        <v>1.366630031141256</v>
+        <v>0.2201461474554094</v>
       </c>
       <c r="D24">
-        <v>0.06203059654730225</v>
+        <v>0.1300704293148058</v>
       </c>
       <c r="E24">
-        <v>0.1685462168065897</v>
+        <v>0.03148944447637447</v>
       </c>
       <c r="F24">
-        <v>3.222633463225861</v>
+        <v>3.534371678534228</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.538832662635571</v>
       </c>
       <c r="J24">
-        <v>0.3219449091027258</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.325362171051751</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2399339310054529</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2814165128053574</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.154010618579619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.179908394105212</v>
+        <v>0.9695819175697409</v>
       </c>
       <c r="C25">
-        <v>1.102100755251627</v>
+        <v>0.1780293112109348</v>
       </c>
       <c r="D25">
-        <v>0.05186791800263535</v>
+        <v>0.128986544091255</v>
       </c>
       <c r="E25">
-        <v>0.1396878404580058</v>
+        <v>0.03004403348374574</v>
       </c>
       <c r="F25">
-        <v>2.722806212820586</v>
+        <v>3.093236679297235</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.270515996018716</v>
       </c>
       <c r="J25">
-        <v>0.2655450928529888</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.07145758082936</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2053403390309825</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2319851471320185</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.820844160271392</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.811162616343438</v>
+        <v>0.7028063186220379</v>
       </c>
       <c r="C2">
-        <v>0.1478995411979298</v>
+        <v>0.04515230317632302</v>
       </c>
       <c r="D2">
-        <v>0.1281847269859959</v>
+        <v>0.1696043453175058</v>
       </c>
       <c r="E2">
-        <v>0.02906502333119043</v>
+        <v>0.065064173581451</v>
       </c>
       <c r="F2">
-        <v>2.782109812933271</v>
+        <v>2.882730028648638</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>2.08173801501836</v>
+        <v>2.379696603339113</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8904830929484717</v>
+        <v>0.5539231946162886</v>
       </c>
       <c r="L2">
-        <v>0.1809548142491337</v>
+        <v>0.2350104351937574</v>
       </c>
       <c r="M2">
-        <v>0.1969270715524907</v>
+        <v>0.2051997460671195</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7065094095358688</v>
+        <v>0.6830582863522352</v>
       </c>
       <c r="C3">
-        <v>0.1278713328463397</v>
+        <v>0.03931581342193624</v>
       </c>
       <c r="D3">
-        <v>0.1276343416430734</v>
+        <v>0.1687664912116489</v>
       </c>
       <c r="E3">
-        <v>0.02844908256291667</v>
+        <v>0.06508989977272428</v>
       </c>
       <c r="F3">
-        <v>2.578191394646495</v>
+        <v>2.829799947878499</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.958288412277213</v>
+        <v>2.346872366106723</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7707005850062387</v>
+        <v>0.5277790340457784</v>
       </c>
       <c r="L3">
-        <v>0.1649868037689473</v>
+        <v>0.2320207262118359</v>
       </c>
       <c r="M3">
-        <v>0.1738378330786361</v>
+        <v>0.2009107545716695</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6433719965680496</v>
+        <v>0.6714924377060072</v>
       </c>
       <c r="C4">
-        <v>0.1157203281678107</v>
+        <v>0.03572706087450683</v>
       </c>
       <c r="D4">
-        <v>0.1272915690106373</v>
+        <v>0.1682345253062287</v>
       </c>
       <c r="E4">
-        <v>0.02809267632056667</v>
+        <v>0.06511933386729929</v>
       </c>
       <c r="F4">
-        <v>2.455932305625268</v>
+        <v>2.798130741212816</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.884409237030454</v>
+        <v>2.327252651222707</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6983133946469593</v>
+        <v>0.512176839428264</v>
       </c>
       <c r="L4">
-        <v>0.155422557430299</v>
+        <v>0.2302950901070488</v>
       </c>
       <c r="M4">
-        <v>0.1599427683104082</v>
+        <v>0.1984151525754179</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6178953241197291</v>
+        <v>0.6669200062992786</v>
       </c>
       <c r="C5">
-        <v>0.1107992072501816</v>
+        <v>0.03426322171019081</v>
       </c>
       <c r="D5">
-        <v>0.1271504792373932</v>
+        <v>0.1680133123278793</v>
       </c>
       <c r="E5">
-        <v>0.0279526889325501</v>
+        <v>0.06513476492838244</v>
       </c>
       <c r="F5">
-        <v>2.406787493535404</v>
+        <v>2.785433527912559</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.854745460046743</v>
+        <v>2.31939152825089</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6690722435995013</v>
+        <v>0.5059319503062767</v>
       </c>
       <c r="L5">
-        <v>0.1515806555291661</v>
+        <v>0.2296195664454288</v>
       </c>
       <c r="M5">
-        <v>0.1543446808690554</v>
+        <v>0.1974328564106287</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6136793641450708</v>
+        <v>0.6661692598586342</v>
       </c>
       <c r="C6">
-        <v>0.1099837261693608</v>
+        <v>0.03402006512612843</v>
       </c>
       <c r="D6">
-        <v>0.1271269610124897</v>
+        <v>0.1679763115719268</v>
       </c>
       <c r="E6">
-        <v>0.02792975494420791</v>
+        <v>0.06513753500359698</v>
       </c>
       <c r="F6">
-        <v>2.398666106759336</v>
+        <v>2.783337728820044</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.849845422765938</v>
+        <v>2.318094282575359</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6642313476798591</v>
+        <v>0.5049018204340285</v>
       </c>
       <c r="L6">
-        <v>0.1509459352230991</v>
+        <v>0.2295090688687296</v>
       </c>
       <c r="M6">
-        <v>0.1534188197184463</v>
+        <v>0.1972718421135795</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6430274248189392</v>
+        <v>0.671430202353946</v>
       </c>
       <c r="C7">
-        <v>0.1156538446644646</v>
+        <v>0.03570732480692129</v>
       </c>
       <c r="D7">
-        <v>0.127289672167155</v>
+        <v>0.1682315599340178</v>
       </c>
       <c r="E7">
-        <v>0.02809076742891037</v>
+        <v>0.06511952805251298</v>
       </c>
       <c r="F7">
-        <v>2.455266863382903</v>
+        <v>2.797958659629927</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.884007439955468</v>
+        <v>2.327146090978374</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6979180405263037</v>
+        <v>0.5120921607721129</v>
       </c>
       <c r="L7">
-        <v>0.1553705251450026</v>
+        <v>0.2302858676375124</v>
       </c>
       <c r="M7">
-        <v>0.1598670187370921</v>
+        <v>0.1984017645367757</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7748273922387625</v>
+        <v>0.6958810868925411</v>
       </c>
       <c r="C8">
-        <v>0.1409594873038742</v>
+        <v>0.04314088021632756</v>
       </c>
       <c r="D8">
-        <v>0.127995838291028</v>
+        <v>0.1693190732270082</v>
       </c>
       <c r="E8">
-        <v>0.02884798421389512</v>
+        <v>0.06507021750912045</v>
       </c>
       <c r="F8">
-        <v>2.711146738087251</v>
+        <v>2.864307142575512</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>2.038749234128701</v>
+        <v>2.368267657414179</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8489198614500424</v>
+        <v>0.5448151113477877</v>
       </c>
       <c r="L8">
-        <v>0.175396206549479</v>
+        <v>0.2339567468037203</v>
       </c>
       <c r="M8">
-        <v>0.1889032851876742</v>
+        <v>0.2036922974812825</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.043620411784474</v>
+        <v>0.7482707620662552</v>
       </c>
       <c r="C9">
-        <v>0.1920569037529276</v>
+        <v>0.05768279880936689</v>
       </c>
       <c r="D9">
-        <v>0.1293515756952033</v>
+        <v>0.1713139159676835</v>
       </c>
       <c r="E9">
-        <v>0.03051687875207421</v>
+        <v>0.06508145503366158</v>
       </c>
       <c r="F9">
-        <v>3.239480837221464</v>
+        <v>3.001032914592372</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>2.359393216692368</v>
+        <v>2.453168246310227</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.155934436377606</v>
+        <v>0.6125691691672159</v>
       </c>
       <c r="L9">
-        <v>0.2168076477481264</v>
+        <v>0.2420287271484938</v>
       </c>
       <c r="M9">
-        <v>0.2484047972235501</v>
+        <v>0.2151610416290204</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.249620517162782</v>
+        <v>0.7894780231037544</v>
       </c>
       <c r="C10">
-        <v>0.2309757862672086</v>
+        <v>0.06835368576710721</v>
       </c>
       <c r="D10">
-        <v>0.1303439941727618</v>
+        <v>0.1726973073640607</v>
       </c>
       <c r="E10">
-        <v>0.03187221753192482</v>
+        <v>0.06515518555748656</v>
       </c>
       <c r="F10">
-        <v>3.648671953759987</v>
+        <v>3.105573187011913</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.608454312146876</v>
+        <v>2.518178197096063</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.39074967240154</v>
+        <v>0.6645544679179238</v>
       </c>
       <c r="L10">
-        <v>0.2488976937115126</v>
+        <v>0.2484928594395228</v>
       </c>
       <c r="M10">
-        <v>0.2941804811015842</v>
+        <v>0.2242557369543619</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.345738149209097</v>
+        <v>0.8088165435355563</v>
       </c>
       <c r="C11">
-        <v>0.2491006490251948</v>
+        <v>0.07320719269830533</v>
       </c>
       <c r="D11">
-        <v>0.1307981581127109</v>
+        <v>0.1733091725649913</v>
       </c>
       <c r="E11">
-        <v>0.03252107419375783</v>
+        <v>0.06520287962822024</v>
       </c>
       <c r="F11">
-        <v>3.840589805070493</v>
+        <v>3.15403135467659</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.725431277793149</v>
+        <v>2.548332896438595</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.500233269939571</v>
+        <v>0.6886880951509795</v>
       </c>
       <c r="L11">
-        <v>0.263947139261191</v>
+        <v>0.251549771719823</v>
       </c>
       <c r="M11">
-        <v>0.3155764190697781</v>
+        <v>0.2285387979917388</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.382532952720567</v>
+        <v>0.8162249136177877</v>
       </c>
       <c r="C12">
-        <v>0.2560358248687891</v>
+        <v>0.07504511545373305</v>
       </c>
       <c r="D12">
-        <v>0.1309708510829637</v>
+        <v>0.1735383896688987</v>
       </c>
       <c r="E12">
-        <v>0.03277181506880744</v>
+        <v>0.06522296934319094</v>
       </c>
       <c r="F12">
-        <v>3.914205838194221</v>
+        <v>3.172511697295846</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.770325272986071</v>
+        <v>2.559835791264419</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.542135710176183</v>
+        <v>0.6978969355419622</v>
       </c>
       <c r="L12">
-        <v>0.2697191655464479</v>
+        <v>0.2527240837254254</v>
       </c>
       <c r="M12">
-        <v>0.323772322334051</v>
+        <v>0.2301816658636611</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.37458999996619</v>
+        <v>0.8146255950983061</v>
       </c>
       <c r="C13">
-        <v>0.2545388302554983</v>
+        <v>0.07464928391399894</v>
       </c>
       <c r="D13">
-        <v>0.130933621456677</v>
+        <v>0.1734891336860755</v>
       </c>
       <c r="E13">
-        <v>0.03271758310197903</v>
+        <v>0.06521855252243469</v>
       </c>
       <c r="F13">
-        <v>3.898307577824056</v>
+        <v>3.168525821689059</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.760628813342009</v>
+        <v>2.557354696823282</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.533090522857435</v>
+        <v>0.6959105325816779</v>
       </c>
       <c r="L13">
-        <v>0.2684726643716573</v>
+        <v>0.2524704308130339</v>
       </c>
       <c r="M13">
-        <v>0.3220028246100028</v>
+        <v>0.2298269124990284</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.348757009025917</v>
+        <v>0.8094243251928219</v>
       </c>
       <c r="C14">
-        <v>0.2496697046899214</v>
+        <v>0.07335839897326935</v>
       </c>
       <c r="D14">
-        <v>0.1308123494557947</v>
+        <v>0.1733280800094334</v>
       </c>
       <c r="E14">
-        <v>0.03254159956951597</v>
+        <v>0.06520449179262044</v>
       </c>
       <c r="F14">
-        <v>3.846626709206134</v>
+        <v>3.155549129347406</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.729112344244228</v>
+        <v>2.54927756163093</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.503671355221343</v>
+        <v>0.6894443088412459</v>
       </c>
       <c r="L14">
-        <v>0.2644204917624222</v>
+        <v>0.2516460478924358</v>
       </c>
       <c r="M14">
-        <v>0.3162487528354418</v>
+        <v>0.2286735375664293</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.332986881735764</v>
+        <v>0.8062495048718006</v>
       </c>
       <c r="C15">
-        <v>0.2466969145106503</v>
+        <v>0.07256769861817247</v>
       </c>
       <c r="D15">
-        <v>0.1307381695604164</v>
+        <v>0.1732291073882664</v>
       </c>
       <c r="E15">
-        <v>0.03243447217814399</v>
+        <v>0.06519614324091094</v>
       </c>
       <c r="F15">
-        <v>3.815096694267083</v>
+        <v>3.14761751380999</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.709887543833048</v>
+        <v>2.54434102871717</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.48571090229251</v>
+        <v>0.6854926763596154</v>
       </c>
       <c r="L15">
-        <v>0.261948200179404</v>
+        <v>0.2511432675983372</v>
       </c>
       <c r="M15">
-        <v>0.3127367830867485</v>
+        <v>0.2279697923104536</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.243391680300562</v>
+        <v>0.7882261405229372</v>
       </c>
       <c r="C16">
-        <v>0.2298006758671249</v>
+        <v>0.06803649234572617</v>
       </c>
       <c r="D16">
-        <v>0.1303143947132703</v>
+        <v>0.1726569716769255</v>
       </c>
       <c r="E16">
-        <v>0.03183049553987516</v>
+        <v>0.06515235290806309</v>
       </c>
       <c r="F16">
-        <v>3.63625506382823</v>
+        <v>3.102424533939285</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.600889296321895</v>
+        <v>2.516219246147898</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.383653285893047</v>
+        <v>0.6629870584596631</v>
       </c>
       <c r="L16">
-        <v>0.2479239449166499</v>
+        <v>0.2482954237893154</v>
       </c>
       <c r="M16">
-        <v>0.2927946730284248</v>
+        <v>0.2239787629603285</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.189079089542787</v>
+        <v>0.7773213036313393</v>
       </c>
       <c r="C17">
-        <v>0.2195506735790786</v>
+        <v>0.06525663462832654</v>
       </c>
       <c r="D17">
-        <v>0.1300553346328144</v>
+        <v>0.1723015349190469</v>
       </c>
       <c r="E17">
-        <v>0.03146851344302348</v>
+        <v>0.06512910956831774</v>
       </c>
       <c r="F17">
-        <v>3.528095700043366</v>
+        <v>3.074931581649338</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.535010956468682</v>
+        <v>2.499116601288549</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.321767638996221</v>
+        <v>0.6493050024437821</v>
       </c>
       <c r="L17">
-        <v>0.239441741186539</v>
+        <v>0.2465781592439242</v>
       </c>
       <c r="M17">
-        <v>0.2807151886165968</v>
+        <v>0.2215677439115353</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.158063143321016</v>
+        <v>0.7711049577071378</v>
       </c>
       <c r="C18">
-        <v>0.2136939786710883</v>
+        <v>0.06365765834253523</v>
       </c>
       <c r="D18">
-        <v>0.1299065638972792</v>
+        <v>0.1720954534200239</v>
       </c>
       <c r="E18">
-        <v>0.0312633263607065</v>
+        <v>0.06511707319752524</v>
       </c>
       <c r="F18">
-        <v>3.466421591909324</v>
+        <v>3.059203256364697</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.497461160094076</v>
+        <v>2.489334309342482</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.286419531829296</v>
+        <v>0.6414811089138936</v>
       </c>
       <c r="L18">
-        <v>0.2346049637515648</v>
+        <v>0.2456013853792172</v>
       </c>
       <c r="M18">
-        <v>0.2738205106241125</v>
+        <v>0.2201947167987797</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147598546859882</v>
+        <v>0.7690097983575299</v>
       </c>
       <c r="C19">
-        <v>0.2117173503949772</v>
+        <v>0.0631162561019778</v>
       </c>
       <c r="D19">
-        <v>0.1298562235691314</v>
+        <v>0.1720253946717456</v>
       </c>
       <c r="E19">
-        <v>0.03119436026635825</v>
+        <v>0.06511322695408239</v>
       </c>
       <c r="F19">
-        <v>3.445628722658853</v>
+        <v>3.053892479840783</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.484804153579404</v>
+        <v>2.486031576457577</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.274491941327767</v>
+        <v>0.6388399103021527</v>
       </c>
       <c r="L19">
-        <v>0.2329742845156062</v>
+        <v>0.2452725475822177</v>
       </c>
       <c r="M19">
-        <v>0.2714948858098793</v>
+        <v>0.2197321912809187</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.194837302694168</v>
+        <v>0.7784763641891743</v>
       </c>
       <c r="C20">
-        <v>0.2206377071612025</v>
+        <v>0.06555256225821893</v>
       </c>
       <c r="D20">
-        <v>0.1300828856024872</v>
+        <v>0.172339541694992</v>
       </c>
       <c r="E20">
-        <v>0.03150673228511636</v>
+        <v>0.06513144598971721</v>
       </c>
       <c r="F20">
-        <v>3.539553179613762</v>
+        <v>3.077849463305711</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.54198798136909</v>
+        <v>2.500931543460197</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.328329505037487</v>
+        <v>0.6507567534102634</v>
       </c>
       <c r="L20">
-        <v>0.2403402866073776</v>
+        <v>0.2467598316074344</v>
       </c>
       <c r="M20">
-        <v>0.2819954934390339</v>
+        <v>0.2218229803319574</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.356333572885035</v>
+        <v>0.810949749404358</v>
       </c>
       <c r="C21">
-        <v>0.2510978437153852</v>
+        <v>0.07373756215199023</v>
       </c>
       <c r="D21">
-        <v>0.1308479479556084</v>
+        <v>0.1733754525605136</v>
       </c>
       <c r="E21">
-        <v>0.03259315032325105</v>
+        <v>0.06520856675289011</v>
       </c>
       <c r="F21">
-        <v>3.861780159183326</v>
+        <v>3.159357158189607</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.738352701942276</v>
+        <v>2.551647730313874</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.512299933006688</v>
+        <v>0.6913416953441924</v>
       </c>
       <c r="L21">
-        <v>0.2656086588601454</v>
+        <v>0.2518877352437272</v>
       </c>
       <c r="M21">
-        <v>0.3179362224811229</v>
+        <v>0.2290117427810401</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.464223284156901</v>
+        <v>0.8326701364687779</v>
       </c>
       <c r="C22">
-        <v>0.2714292812716934</v>
+        <v>0.07908701380296179</v>
       </c>
       <c r="D22">
-        <v>0.1313522790082544</v>
+        <v>0.1740380193969244</v>
       </c>
       <c r="E22">
-        <v>0.03333273222728472</v>
+        <v>0.06527079335998387</v>
       </c>
       <c r="F22">
-        <v>4.077918304673148</v>
+        <v>3.213386810096011</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.870207323738768</v>
+        <v>2.585283272280051</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.635152344775889</v>
+        <v>0.718274167234398</v>
       </c>
       <c r="L22">
-        <v>0.2825536808061884</v>
+        <v>0.2553366050599521</v>
       </c>
       <c r="M22">
-        <v>0.3419780700748518</v>
+        <v>0.2338322165362428</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.40640786631468</v>
+        <v>0.821032065696528</v>
       </c>
       <c r="C23">
-        <v>0.2605351705413028</v>
+        <v>0.07623186666229742</v>
       </c>
       <c r="D23">
-        <v>0.1310825975175618</v>
+        <v>0.1736857096933946</v>
       </c>
       <c r="E23">
-        <v>0.03293516156053755</v>
+        <v>0.0652365020332546</v>
       </c>
       <c r="F23">
-        <v>3.962014423934733</v>
+        <v>3.184480479338106</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.799487519615525</v>
+        <v>2.567286431778086</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.569322620951738</v>
+        <v>0.7038624189367226</v>
       </c>
       <c r="L23">
-        <v>0.2734674610273657</v>
+        <v>0.2534869595044711</v>
       </c>
       <c r="M23">
-        <v>0.3290918332981576</v>
+        <v>0.231248259041152</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.192233367060027</v>
+        <v>0.7779539962556044</v>
       </c>
       <c r="C24">
-        <v>0.2201461474554094</v>
+        <v>0.06541877587470424</v>
       </c>
       <c r="D24">
-        <v>0.1300704293148058</v>
+        <v>0.1723223642415377</v>
       </c>
       <c r="E24">
-        <v>0.03148944447637447</v>
+        <v>0.06513038556141382</v>
       </c>
       <c r="F24">
-        <v>3.534371678534228</v>
+        <v>3.076530046894078</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.538832662635571</v>
+        <v>2.500110851613996</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.325362171051751</v>
+        <v>0.6501002856699643</v>
       </c>
       <c r="L24">
-        <v>0.2399339310054529</v>
+        <v>0.2466776648128786</v>
       </c>
       <c r="M24">
-        <v>0.2814165128053574</v>
+        <v>0.221707547142131</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9695819175697409</v>
+        <v>0.7336215740657792</v>
       </c>
       <c r="C25">
-        <v>0.1780293112109348</v>
+        <v>0.05375173029666769</v>
       </c>
       <c r="D25">
-        <v>0.128986544091255</v>
+        <v>0.1707888236846209</v>
       </c>
       <c r="E25">
-        <v>0.03004403348374574</v>
+        <v>0.06506689370168495</v>
       </c>
       <c r="F25">
-        <v>3.093236679297235</v>
+        <v>2.963331030722543</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>2.270515996018716</v>
+        <v>2.429740502187997</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.07145758082936</v>
+        <v>0.5938539922609323</v>
       </c>
       <c r="L25">
-        <v>0.2053403390309825</v>
+        <v>0.2397514180237295</v>
       </c>
       <c r="M25">
-        <v>0.2319851471320185</v>
+        <v>0.2119411528005344</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7028063186220379</v>
+        <v>0.8111626163433812</v>
       </c>
       <c r="C2">
-        <v>0.04515230317632302</v>
+        <v>0.1478995411979014</v>
       </c>
       <c r="D2">
-        <v>0.1696043453175058</v>
+        <v>0.1281847269857295</v>
       </c>
       <c r="E2">
-        <v>0.065064173581451</v>
+        <v>0.02906502333119754</v>
       </c>
       <c r="F2">
-        <v>2.882730028648638</v>
+        <v>2.782109812933285</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.379696603339113</v>
+        <v>2.081738015018388</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5539231946162886</v>
+        <v>0.890483092948557</v>
       </c>
       <c r="L2">
-        <v>0.2350104351937574</v>
+        <v>0.180954814249155</v>
       </c>
       <c r="M2">
-        <v>0.2051997460671195</v>
+        <v>0.1969270715524907</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6830582863522352</v>
+        <v>0.7065094095358404</v>
       </c>
       <c r="C3">
-        <v>0.03931581342193624</v>
+        <v>0.1278713328465244</v>
       </c>
       <c r="D3">
-        <v>0.1687664912116489</v>
+        <v>0.1276343416430699</v>
       </c>
       <c r="E3">
-        <v>0.06508989977272428</v>
+        <v>0.02844908256296463</v>
       </c>
       <c r="F3">
-        <v>2.829799947878499</v>
+        <v>2.578191394646467</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.346872366106723</v>
+        <v>1.958288412277199</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5277790340457784</v>
+        <v>0.7707005850062103</v>
       </c>
       <c r="L3">
-        <v>0.2320207262118359</v>
+        <v>0.1649868037688904</v>
       </c>
       <c r="M3">
-        <v>0.2009107545716695</v>
+        <v>0.1738378330786396</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6714924377060072</v>
+        <v>0.6433719965680496</v>
       </c>
       <c r="C4">
-        <v>0.03572706087450683</v>
+        <v>0.1157203281680239</v>
       </c>
       <c r="D4">
-        <v>0.1682345253062287</v>
+        <v>0.1272915690108682</v>
       </c>
       <c r="E4">
-        <v>0.06511933386729929</v>
+        <v>0.02809267632056667</v>
       </c>
       <c r="F4">
-        <v>2.798130741212816</v>
+        <v>2.455932305625268</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.327252651222707</v>
+        <v>1.884409237030454</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.512176839428264</v>
+        <v>0.6983133946469593</v>
       </c>
       <c r="L4">
-        <v>0.2302950901070488</v>
+        <v>0.1554225574303487</v>
       </c>
       <c r="M4">
-        <v>0.1984151525754179</v>
+        <v>0.1599427683104224</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6669200062992786</v>
+        <v>0.6178953241198428</v>
       </c>
       <c r="C5">
-        <v>0.03426322171019081</v>
+        <v>0.1107992072506789</v>
       </c>
       <c r="D5">
-        <v>0.1680133123278793</v>
+        <v>0.1271504792373044</v>
       </c>
       <c r="E5">
-        <v>0.06513476492838244</v>
+        <v>0.02795268893253589</v>
       </c>
       <c r="F5">
-        <v>2.785433527912559</v>
+        <v>2.406787493535433</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.31939152825089</v>
+        <v>1.854745460046786</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5059319503062767</v>
+        <v>0.6690722435995156</v>
       </c>
       <c r="L5">
-        <v>0.2296195664454288</v>
+        <v>0.1515806555290951</v>
       </c>
       <c r="M5">
-        <v>0.1974328564106287</v>
+        <v>0.1543446808690483</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6661692598586342</v>
+        <v>0.6136793641452698</v>
       </c>
       <c r="C6">
-        <v>0.03402006512612843</v>
+        <v>0.1099837261698013</v>
       </c>
       <c r="D6">
-        <v>0.1679763115719268</v>
+        <v>0.1271269610125891</v>
       </c>
       <c r="E6">
-        <v>0.06513753500359698</v>
+        <v>0.02792975494420791</v>
       </c>
       <c r="F6">
-        <v>2.783337728820044</v>
+        <v>2.398666106759322</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.318094282575359</v>
+        <v>1.849845422765924</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5049018204340285</v>
+        <v>0.6642313476798734</v>
       </c>
       <c r="L6">
-        <v>0.2295090688687296</v>
+        <v>0.1509459352231488</v>
       </c>
       <c r="M6">
-        <v>0.1972718421135795</v>
+        <v>0.1534188197184356</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.671430202353946</v>
+        <v>0.6430274248188823</v>
       </c>
       <c r="C7">
-        <v>0.03570732480692129</v>
+        <v>0.1156538446639956</v>
       </c>
       <c r="D7">
-        <v>0.1682315599340178</v>
+        <v>0.1272896721671444</v>
       </c>
       <c r="E7">
-        <v>0.06511952805251298</v>
+        <v>0.02809076742889527</v>
       </c>
       <c r="F7">
-        <v>2.797958659629927</v>
+        <v>2.455266863382903</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.327146090978374</v>
+        <v>1.88400743995544</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5120921607721129</v>
+        <v>0.6979180405263321</v>
       </c>
       <c r="L7">
-        <v>0.2302858676375124</v>
+        <v>0.1553705251450452</v>
       </c>
       <c r="M7">
-        <v>0.1984017645367757</v>
+        <v>0.1598670187371098</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6958810868925411</v>
+        <v>0.774827392238592</v>
       </c>
       <c r="C8">
-        <v>0.04314088021632756</v>
+        <v>0.1409594873038742</v>
       </c>
       <c r="D8">
-        <v>0.1693190732270082</v>
+        <v>0.127995838291028</v>
       </c>
       <c r="E8">
-        <v>0.06507021750912045</v>
+        <v>0.02884798421389689</v>
       </c>
       <c r="F8">
-        <v>2.864307142575512</v>
+        <v>2.711146738087265</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.368267657414179</v>
+        <v>2.038749234128716</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5448151113477877</v>
+        <v>0.8489198614500992</v>
       </c>
       <c r="L8">
-        <v>0.2339567468037203</v>
+        <v>0.1753962065494292</v>
       </c>
       <c r="M8">
-        <v>0.2036922974812825</v>
+        <v>0.1889032851876564</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7482707620662552</v>
+        <v>1.043620411784332</v>
       </c>
       <c r="C9">
-        <v>0.05768279880936689</v>
+        <v>0.1920569037524444</v>
       </c>
       <c r="D9">
-        <v>0.1713139159676835</v>
+        <v>0.1293515756951962</v>
       </c>
       <c r="E9">
-        <v>0.06508145503366158</v>
+        <v>0.0305168787520369</v>
       </c>
       <c r="F9">
-        <v>3.001032914592372</v>
+        <v>3.239480837221436</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.453168246310227</v>
+        <v>2.359393216692354</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6125691691672159</v>
+        <v>1.155934436377635</v>
       </c>
       <c r="L9">
-        <v>0.2420287271484938</v>
+        <v>0.2168076477481264</v>
       </c>
       <c r="M9">
-        <v>0.2151610416290204</v>
+        <v>0.248404797223543</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7894780231037544</v>
+        <v>1.249620517162697</v>
       </c>
       <c r="C10">
-        <v>0.06835368576710721</v>
+        <v>0.2309757862669528</v>
       </c>
       <c r="D10">
-        <v>0.1726973073640607</v>
+        <v>0.1303439941726126</v>
       </c>
       <c r="E10">
-        <v>0.06515518555748656</v>
+        <v>0.03187221753193192</v>
       </c>
       <c r="F10">
-        <v>3.105573187011913</v>
+        <v>3.648671953760015</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.518178197096063</v>
+        <v>2.608454312146904</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6645544679179238</v>
+        <v>1.390749672401512</v>
       </c>
       <c r="L10">
-        <v>0.2484928594395228</v>
+        <v>0.2488976937113563</v>
       </c>
       <c r="M10">
-        <v>0.2242557369543619</v>
+        <v>0.2941804811016127</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8088165435355563</v>
+        <v>1.345738149208898</v>
       </c>
       <c r="C11">
-        <v>0.07320719269830533</v>
+        <v>0.2491006490249106</v>
       </c>
       <c r="D11">
-        <v>0.1733091725649913</v>
+        <v>0.1307981581127038</v>
       </c>
       <c r="E11">
-        <v>0.06520287962822024</v>
+        <v>0.03252107419375427</v>
       </c>
       <c r="F11">
-        <v>3.15403135467659</v>
+        <v>3.840589805070522</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.548332896438595</v>
+        <v>2.725431277793135</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6886880951509795</v>
+        <v>1.50023326993977</v>
       </c>
       <c r="L11">
-        <v>0.251549771719823</v>
+        <v>0.2639471392611057</v>
       </c>
       <c r="M11">
-        <v>0.2285387979917388</v>
+        <v>0.315576419069771</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8162249136177877</v>
+        <v>1.382532952720709</v>
       </c>
       <c r="C12">
-        <v>0.07504511545373305</v>
+        <v>0.2560358248688175</v>
       </c>
       <c r="D12">
-        <v>0.1735383896688987</v>
+        <v>0.1309708510824166</v>
       </c>
       <c r="E12">
-        <v>0.06522296934319094</v>
+        <v>0.0327718150687577</v>
       </c>
       <c r="F12">
-        <v>3.172511697295846</v>
+        <v>3.914205838194249</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.559835791264419</v>
+        <v>2.770325272986071</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6978969355419622</v>
+        <v>1.542135710176382</v>
       </c>
       <c r="L12">
-        <v>0.2527240837254254</v>
+        <v>0.2697191655462206</v>
       </c>
       <c r="M12">
-        <v>0.2301816658636611</v>
+        <v>0.3237723223340154</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8146255950983061</v>
+        <v>1.374589999966076</v>
       </c>
       <c r="C13">
-        <v>0.07464928391399894</v>
+        <v>0.2545388302557257</v>
       </c>
       <c r="D13">
-        <v>0.1734891336860755</v>
+        <v>0.1309336214565633</v>
       </c>
       <c r="E13">
-        <v>0.06521855252243469</v>
+        <v>0.03271758310198081</v>
       </c>
       <c r="F13">
-        <v>3.168525821689059</v>
+        <v>3.898307577824113</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.557354696823282</v>
+        <v>2.760628813342009</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6959105325816779</v>
+        <v>1.533090522857492</v>
       </c>
       <c r="L13">
-        <v>0.2524704308130339</v>
+        <v>0.2684726643715436</v>
       </c>
       <c r="M13">
-        <v>0.2298269124990284</v>
+        <v>0.3220028246099815</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8094243251928219</v>
+        <v>1.348757009025917</v>
       </c>
       <c r="C14">
-        <v>0.07335839897326935</v>
+        <v>0.249669704690163</v>
       </c>
       <c r="D14">
-        <v>0.1733280800094334</v>
+        <v>0.1308123494559226</v>
       </c>
       <c r="E14">
-        <v>0.06520449179262044</v>
+        <v>0.03254159956950708</v>
       </c>
       <c r="F14">
-        <v>3.155549129347406</v>
+        <v>3.846626709206106</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.54927756163093</v>
+        <v>2.729112344244243</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6894443088412459</v>
+        <v>1.503671355221428</v>
       </c>
       <c r="L14">
-        <v>0.2516460478924358</v>
+        <v>0.2644204917624791</v>
       </c>
       <c r="M14">
-        <v>0.2286735375664293</v>
+        <v>0.3162487528354418</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8062495048718006</v>
+        <v>1.332986881735764</v>
       </c>
       <c r="C15">
-        <v>0.07256769861817247</v>
+        <v>0.2466969145106646</v>
       </c>
       <c r="D15">
-        <v>0.1732291073882664</v>
+        <v>0.1307381695600185</v>
       </c>
       <c r="E15">
-        <v>0.06519614324091094</v>
+        <v>0.03243447217813866</v>
       </c>
       <c r="F15">
-        <v>3.14761751380999</v>
+        <v>3.815096694267112</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.54434102871717</v>
+        <v>2.709887543833048</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6854926763596154</v>
+        <v>1.485710902292425</v>
       </c>
       <c r="L15">
-        <v>0.2511432675983372</v>
+        <v>0.261948200179404</v>
       </c>
       <c r="M15">
-        <v>0.2279697923104536</v>
+        <v>0.3127367830867414</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7882261405229372</v>
+        <v>1.243391680300476</v>
       </c>
       <c r="C16">
-        <v>0.06803649234572617</v>
+        <v>0.2298006758673665</v>
       </c>
       <c r="D16">
-        <v>0.1726569716769255</v>
+        <v>0.1303143947131709</v>
       </c>
       <c r="E16">
-        <v>0.06515235290806309</v>
+        <v>0.03183049553988404</v>
       </c>
       <c r="F16">
-        <v>3.102424533939285</v>
+        <v>3.636255063828202</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.516219246147898</v>
+        <v>2.600889296321895</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6629870584596631</v>
+        <v>1.383653285892819</v>
       </c>
       <c r="L16">
-        <v>0.2482954237893154</v>
+        <v>0.2479239449166784</v>
       </c>
       <c r="M16">
-        <v>0.2239787629603285</v>
+        <v>0.2927946730284248</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7773213036313393</v>
+        <v>1.189079089542673</v>
       </c>
       <c r="C17">
-        <v>0.06525663462832654</v>
+        <v>0.2195506735791071</v>
       </c>
       <c r="D17">
-        <v>0.1723015349190469</v>
+        <v>0.1300553346328357</v>
       </c>
       <c r="E17">
-        <v>0.06512910956831774</v>
+        <v>0.03146851344303059</v>
       </c>
       <c r="F17">
-        <v>3.074931581649338</v>
+        <v>3.528095700043423</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.499116601288549</v>
+        <v>2.535010956468639</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6493050024437821</v>
+        <v>1.321767638996221</v>
       </c>
       <c r="L17">
-        <v>0.2465781592439242</v>
+        <v>0.2394417411864254</v>
       </c>
       <c r="M17">
-        <v>0.2215677439115353</v>
+        <v>0.2807151886166253</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7711049577071378</v>
+        <v>1.158063143320959</v>
       </c>
       <c r="C18">
-        <v>0.06365765834253523</v>
+        <v>0.2136939786715715</v>
       </c>
       <c r="D18">
-        <v>0.1720954534200239</v>
+        <v>0.1299065638974994</v>
       </c>
       <c r="E18">
-        <v>0.06511707319752524</v>
+        <v>0.03126332636077045</v>
       </c>
       <c r="F18">
-        <v>3.059203256364697</v>
+        <v>3.466421591909324</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.489334309342482</v>
+        <v>2.497461160094062</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6414811089138936</v>
+        <v>1.286419531829296</v>
       </c>
       <c r="L18">
-        <v>0.2456013853792172</v>
+        <v>0.2346049637516217</v>
       </c>
       <c r="M18">
-        <v>0.2201947167987797</v>
+        <v>0.2738205106241196</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7690097983575299</v>
+        <v>1.147598546859967</v>
       </c>
       <c r="C19">
-        <v>0.0631162561019778</v>
+        <v>0.2117173503950198</v>
       </c>
       <c r="D19">
-        <v>0.1720253946717456</v>
+        <v>0.1298562235689928</v>
       </c>
       <c r="E19">
-        <v>0.06511322695408239</v>
+        <v>0.03119436026638134</v>
       </c>
       <c r="F19">
-        <v>3.053892479840783</v>
+        <v>3.445628722658881</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.486031576457577</v>
+        <v>2.484804153579418</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6388399103021527</v>
+        <v>1.274491941327682</v>
       </c>
       <c r="L19">
-        <v>0.2452725475822177</v>
+        <v>0.232974284515592</v>
       </c>
       <c r="M19">
-        <v>0.2197321912809187</v>
+        <v>0.2714948858098936</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7784763641891743</v>
+        <v>1.194837302694168</v>
       </c>
       <c r="C20">
-        <v>0.06555256225821893</v>
+        <v>0.2206377071608898</v>
       </c>
       <c r="D20">
-        <v>0.172339541694992</v>
+        <v>0.1300828856025795</v>
       </c>
       <c r="E20">
-        <v>0.06513144598971721</v>
+        <v>0.03150673228513234</v>
       </c>
       <c r="F20">
-        <v>3.077849463305711</v>
+        <v>3.539553179613733</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.500931543460197</v>
+        <v>2.541987981369118</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6507567534102634</v>
+        <v>1.328329505037487</v>
       </c>
       <c r="L20">
-        <v>0.2467598316074344</v>
+        <v>0.2403402866073066</v>
       </c>
       <c r="M20">
-        <v>0.2218229803319574</v>
+        <v>0.2819954934390339</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.810949749404358</v>
+        <v>1.356333572885148</v>
       </c>
       <c r="C21">
-        <v>0.07373756215199023</v>
+        <v>0.2510978437156126</v>
       </c>
       <c r="D21">
-        <v>0.1733754525605136</v>
+        <v>0.1308479479554592</v>
       </c>
       <c r="E21">
-        <v>0.06520856675289011</v>
+        <v>0.03259315032323507</v>
       </c>
       <c r="F21">
-        <v>3.159357158189607</v>
+        <v>3.861780159183326</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.551647730313874</v>
+        <v>2.738352701942276</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6913416953441924</v>
+        <v>1.512299933006517</v>
       </c>
       <c r="L21">
-        <v>0.2518877352437272</v>
+        <v>0.2656086588602733</v>
       </c>
       <c r="M21">
-        <v>0.2290117427810401</v>
+        <v>0.3179362224811086</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8326701364687779</v>
+        <v>1.464223284156731</v>
       </c>
       <c r="C22">
-        <v>0.07908701380296179</v>
+        <v>0.2714292812717218</v>
       </c>
       <c r="D22">
-        <v>0.1740380193969244</v>
+        <v>0.1313522790084818</v>
       </c>
       <c r="E22">
-        <v>0.06527079335998387</v>
+        <v>0.03333273222724387</v>
       </c>
       <c r="F22">
-        <v>3.213386810096011</v>
+        <v>4.077918304673148</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.585283272280051</v>
+        <v>2.870207323738796</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.718274167234398</v>
+        <v>1.635152344775719</v>
       </c>
       <c r="L22">
-        <v>0.2553366050599521</v>
+        <v>0.2825536808060605</v>
       </c>
       <c r="M22">
-        <v>0.2338322165362428</v>
+        <v>0.3419780700748376</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.821032065696528</v>
+        <v>1.406407866314737</v>
       </c>
       <c r="C23">
-        <v>0.07623186666229742</v>
+        <v>0.2605351705412886</v>
       </c>
       <c r="D23">
-        <v>0.1736857096933946</v>
+        <v>0.1310825975180379</v>
       </c>
       <c r="E23">
-        <v>0.0652365020332546</v>
+        <v>0.03293516156060683</v>
       </c>
       <c r="F23">
-        <v>3.184480479338106</v>
+        <v>3.962014423934676</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.567286431778086</v>
+        <v>2.799487519615525</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7038624189367226</v>
+        <v>1.569322620951624</v>
       </c>
       <c r="L23">
-        <v>0.2534869595044711</v>
+        <v>0.273467461027181</v>
       </c>
       <c r="M23">
-        <v>0.231248259041152</v>
+        <v>0.3290918332981576</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7779539962556044</v>
+        <v>1.192233367060084</v>
       </c>
       <c r="C24">
-        <v>0.06541877587470424</v>
+        <v>0.220146147455651</v>
       </c>
       <c r="D24">
-        <v>0.1723223642415377</v>
+        <v>0.1300704293147064</v>
       </c>
       <c r="E24">
-        <v>0.06513038556141382</v>
+        <v>0.03148944447634427</v>
       </c>
       <c r="F24">
-        <v>3.076530046894078</v>
+        <v>3.534371678534256</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.500110851613996</v>
+        <v>2.538832662635528</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6501002856699643</v>
+        <v>1.325362171051779</v>
       </c>
       <c r="L24">
-        <v>0.2466776648128786</v>
+        <v>0.2399339310054245</v>
       </c>
       <c r="M24">
-        <v>0.221707547142131</v>
+        <v>0.2814165128053645</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7336215740657792</v>
+        <v>0.9695819175699398</v>
       </c>
       <c r="C25">
-        <v>0.05375173029666769</v>
+        <v>0.1780293112109348</v>
       </c>
       <c r="D25">
-        <v>0.1707888236846209</v>
+        <v>0.1289865440912621</v>
       </c>
       <c r="E25">
-        <v>0.06506689370168495</v>
+        <v>0.03004403348374751</v>
       </c>
       <c r="F25">
-        <v>2.963331030722543</v>
+        <v>3.093236679297206</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.429740502187997</v>
+        <v>2.270515996018702</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5938539922609323</v>
+        <v>1.071457580829332</v>
       </c>
       <c r="L25">
-        <v>0.2397514180237295</v>
+        <v>0.2053403390309825</v>
       </c>
       <c r="M25">
-        <v>0.2119411528005344</v>
+        <v>0.2319851471320185</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8111626163433812</v>
+        <v>3.430320521916769</v>
       </c>
       <c r="C2">
-        <v>0.1478995411979014</v>
+        <v>1.033388805749155</v>
       </c>
       <c r="D2">
-        <v>0.1281847269857295</v>
+        <v>0.2493247843688096</v>
       </c>
       <c r="E2">
-        <v>0.02906502333119754</v>
+        <v>0.2095582247119481</v>
       </c>
       <c r="F2">
-        <v>2.782109812933285</v>
+        <v>0.7212094219912331</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.000509345670464123</v>
       </c>
       <c r="I2">
-        <v>2.081738015018388</v>
+        <v>0.0008799390955722686</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.890483092948557</v>
+        <v>0.1925951625254285</v>
       </c>
       <c r="L2">
-        <v>0.180954814249155</v>
+        <v>0.2308372704496477</v>
       </c>
       <c r="M2">
-        <v>0.1969270715524907</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.427357291482309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7065094095358404</v>
+        <v>2.989499938854067</v>
       </c>
       <c r="C3">
-        <v>0.1278713328465244</v>
+        <v>0.9036689693820108</v>
       </c>
       <c r="D3">
-        <v>0.1276343416430699</v>
+        <v>0.2215672083322033</v>
       </c>
       <c r="E3">
-        <v>0.02844908256296463</v>
+        <v>0.1866912534800207</v>
       </c>
       <c r="F3">
-        <v>2.578191394646467</v>
+        <v>0.6817726290726398</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>4.603520730817046E-05</v>
+      </c>
+      <c r="I3">
+        <v>0.0004618946740975183</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>1.958288412277199</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0.7707005850062103</v>
+        <v>0.2035726684164594</v>
       </c>
       <c r="L3">
-        <v>0.1649868037688904</v>
+        <v>0.2059901072893666</v>
       </c>
       <c r="M3">
-        <v>0.1738378330786396</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.379413805956759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6433719965680496</v>
+        <v>2.718435715196506</v>
       </c>
       <c r="C4">
-        <v>0.1157203281680239</v>
+        <v>0.8244672333007941</v>
       </c>
       <c r="D4">
-        <v>0.1272915690108682</v>
+        <v>0.2045934699153236</v>
       </c>
       <c r="E4">
-        <v>0.02809267632056667</v>
+        <v>0.1726668670861571</v>
       </c>
       <c r="F4">
-        <v>2.455932305625268</v>
+        <v>0.6582173210592046</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>1.058978583001746E-05</v>
+      </c>
+      <c r="I4">
+        <v>0.0004304665292167442</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>1.884409237030454</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.6983133946469593</v>
+        <v>0.2107486099133347</v>
       </c>
       <c r="L4">
-        <v>0.1554225574303487</v>
+        <v>0.1907185911402394</v>
       </c>
       <c r="M4">
-        <v>0.1599427683104224</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.35199752572376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6178953241198428</v>
+        <v>2.607837446501549</v>
       </c>
       <c r="C5">
-        <v>0.1107992072506789</v>
+        <v>0.7936328547993128</v>
       </c>
       <c r="D5">
-        <v>0.1271504792373044</v>
+        <v>0.19784757851248</v>
       </c>
       <c r="E5">
-        <v>0.02795268893253589</v>
+        <v>0.166990648005843</v>
       </c>
       <c r="F5">
-        <v>2.406787493535433</v>
+        <v>0.6480737288206342</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>5.544799172474413E-05</v>
+      </c>
+      <c r="I5">
+        <v>0.0005364873280182536</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>1.854745460046786</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0.6690722435995156</v>
+        <v>0.2135049009895624</v>
       </c>
       <c r="L5">
-        <v>0.1515806555290951</v>
+        <v>0.1844584738177559</v>
       </c>
       <c r="M5">
-        <v>0.1543446808690483</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.339381095133888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6136793641452698</v>
+        <v>2.589440868163706</v>
       </c>
       <c r="C6">
-        <v>0.1099837261698013</v>
+        <v>0.7901612813076895</v>
       </c>
       <c r="D6">
-        <v>0.1271269610125891</v>
+        <v>0.1969193006869716</v>
       </c>
       <c r="E6">
-        <v>0.02792975494420791</v>
+        <v>0.1660935036629034</v>
       </c>
       <c r="F6">
-        <v>2.398666106759322</v>
+        <v>0.6455433878344081</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>6.663072468815479E-05</v>
+      </c>
+      <c r="I6">
+        <v>0.0006450138437203989</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>1.849845422765924</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0.6642313476798734</v>
+        <v>0.2136366623380006</v>
       </c>
       <c r="L6">
-        <v>0.1509459352231488</v>
+        <v>0.183381312503279</v>
       </c>
       <c r="M6">
-        <v>0.1534188197184356</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.334965850966327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6430274248188823</v>
+        <v>2.716877005911613</v>
       </c>
       <c r="C7">
-        <v>0.1156538446639956</v>
+        <v>0.8285478524938128</v>
       </c>
       <c r="D7">
-        <v>0.1272896721671444</v>
+        <v>0.2050249916587603</v>
       </c>
       <c r="E7">
-        <v>0.02809076742889527</v>
+        <v>0.1727145350502219</v>
       </c>
       <c r="F7">
-        <v>2.455266863382903</v>
+        <v>0.6557448041386493</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>1.122386996543767E-05</v>
+      </c>
+      <c r="I7">
+        <v>0.0006558762634130133</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>1.88400743995544</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0.6979180405263321</v>
+        <v>0.2098815431403995</v>
       </c>
       <c r="L7">
-        <v>0.1553705251450452</v>
+        <v>0.190532583526398</v>
       </c>
       <c r="M7">
-        <v>0.1598670187371098</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.345414299895523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.774827392238592</v>
+        <v>3.278301547551735</v>
       </c>
       <c r="C8">
-        <v>0.1409594873038742</v>
+        <v>0.9945665575530711</v>
       </c>
       <c r="D8">
-        <v>0.127995838291028</v>
+        <v>0.2404338922121099</v>
       </c>
       <c r="E8">
-        <v>0.02884798421389689</v>
+        <v>0.2018351930475504</v>
       </c>
       <c r="F8">
-        <v>2.711146738087265</v>
+        <v>0.7043817627909164</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.000294086930484827</v>
+      </c>
+      <c r="I8">
+        <v>0.0009527364073473876</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>2.038749234128716</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0.8489198614500992</v>
+        <v>0.1951117534724887</v>
       </c>
       <c r="L8">
-        <v>0.1753962065494292</v>
+        <v>0.2221371615369634</v>
       </c>
       <c r="M8">
-        <v>0.1889032851876564</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.401928822061279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.043620411784332</v>
+        <v>4.377132055831225</v>
       </c>
       <c r="C9">
-        <v>0.1920569037524444</v>
+        <v>1.316085237384641</v>
       </c>
       <c r="D9">
-        <v>0.1293515756951962</v>
+        <v>0.3095946712495277</v>
       </c>
       <c r="E9">
-        <v>0.0305168787520369</v>
+        <v>0.2589489679808139</v>
       </c>
       <c r="F9">
-        <v>3.239480837221436</v>
+        <v>0.8096889595151993</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.002994141386028493</v>
+      </c>
+      <c r="I9">
+        <v>0.00316163310406381</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>2.359393216692354</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.155934436377635</v>
+        <v>0.1714083283505587</v>
       </c>
       <c r="L9">
-        <v>0.2168076477481264</v>
+        <v>0.2842988721239692</v>
       </c>
       <c r="M9">
-        <v>0.248404797223543</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.541684284250465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.249620517162697</v>
+        <v>5.183911365027086</v>
       </c>
       <c r="C10">
-        <v>0.2309757862669528</v>
+        <v>1.55372633729354</v>
       </c>
       <c r="D10">
-        <v>0.1303439941726126</v>
+        <v>0.3541155540070093</v>
       </c>
       <c r="E10">
-        <v>0.03187221753193192</v>
+        <v>0.2906656147498836</v>
       </c>
       <c r="F10">
-        <v>3.648671953760015</v>
+        <v>0.8739508443845381</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.006467792373941794</v>
+      </c>
+      <c r="I10">
+        <v>0.006279278958435164</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>2.608454312146904</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1.390749672401512</v>
+        <v>0.1536839698617705</v>
       </c>
       <c r="L10">
-        <v>0.2488976937113563</v>
+        <v>0.3151033766367277</v>
       </c>
       <c r="M10">
-        <v>0.2941804811016127</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.624759693295175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.345738149208898</v>
+        <v>5.5462493099364</v>
       </c>
       <c r="C11">
-        <v>0.2491006490249106</v>
+        <v>1.633242150154274</v>
       </c>
       <c r="D11">
-        <v>0.1307981581127038</v>
+        <v>0.3151776295540998</v>
       </c>
       <c r="E11">
-        <v>0.03252107419375427</v>
+        <v>0.2204975723990472</v>
       </c>
       <c r="F11">
-        <v>3.840589805070522</v>
+        <v>0.7642099500118604</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02497648795988638</v>
+      </c>
+      <c r="I11">
+        <v>0.007846084846716117</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>2.725431277793135</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>1.50023326993977</v>
+        <v>0.1262248541008528</v>
       </c>
       <c r="L11">
-        <v>0.2639471392611057</v>
+        <v>0.2139460006622329</v>
       </c>
       <c r="M11">
-        <v>0.315576419069771</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.410580182923638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.382532952720709</v>
+        <v>5.681617458881192</v>
       </c>
       <c r="C12">
-        <v>0.2560358248688175</v>
+        <v>1.641741392712788</v>
       </c>
       <c r="D12">
-        <v>0.1309708510824166</v>
+        <v>0.2744413444889915</v>
       </c>
       <c r="E12">
-        <v>0.0327718150687577</v>
+        <v>0.1641649664262097</v>
       </c>
       <c r="F12">
-        <v>3.914205838194249</v>
+        <v>0.6669677082271122</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.0631875218451512</v>
+      </c>
+      <c r="I12">
+        <v>0.008074288155815346</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>2.770325272986071</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>1.542135710176382</v>
+        <v>0.1108032350442301</v>
       </c>
       <c r="L12">
-        <v>0.2697191655462206</v>
+        <v>0.1427161864260214</v>
       </c>
       <c r="M12">
-        <v>0.3237723223340154</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.231574746830461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.374589999966076</v>
+        <v>5.648668739583286</v>
       </c>
       <c r="C13">
-        <v>0.2545388302557257</v>
+        <v>1.603160319813583</v>
       </c>
       <c r="D13">
-        <v>0.1309336214565633</v>
+        <v>0.2310536948669437</v>
       </c>
       <c r="E13">
-        <v>0.03271758310198081</v>
+        <v>0.1156800537708165</v>
       </c>
       <c r="F13">
-        <v>3.898307577824113</v>
+        <v>0.5702587661594052</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1181116772266506</v>
+      </c>
+      <c r="I13">
+        <v>0.007559090083549158</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>2.760628813342009</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>1.533090522857492</v>
+        <v>0.1020896903334361</v>
       </c>
       <c r="L13">
-        <v>0.2684726643715436</v>
+        <v>0.09042667096377599</v>
       </c>
       <c r="M13">
-        <v>0.3220028246099815</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.059018974470476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.348757009025917</v>
+        <v>5.549341658297465</v>
       </c>
       <c r="C14">
-        <v>0.249669704690163</v>
+        <v>1.556374398380456</v>
       </c>
       <c r="D14">
-        <v>0.1308123494559226</v>
+        <v>0.2002270404800441</v>
       </c>
       <c r="E14">
-        <v>0.03254159956950708</v>
+        <v>0.08691387498356562</v>
       </c>
       <c r="F14">
-        <v>3.846626709206106</v>
+        <v>0.5036495169372515</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1667698665606281</v>
+      </c>
+      <c r="I14">
+        <v>0.006963084878687908</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>2.729112344244243</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>1.503671355221428</v>
+        <v>0.09927314479298177</v>
       </c>
       <c r="L14">
-        <v>0.2644204917624791</v>
+        <v>0.0653678332900931</v>
       </c>
       <c r="M14">
-        <v>0.3162487528354418</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9421255028758537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.332986881735764</v>
+        <v>5.489226348911302</v>
       </c>
       <c r="C15">
-        <v>0.2466969145106646</v>
+        <v>1.536973449730453</v>
       </c>
       <c r="D15">
-        <v>0.1307381695600185</v>
+        <v>0.1920746873826857</v>
       </c>
       <c r="E15">
-        <v>0.03243447217813866</v>
+        <v>0.08040266906592208</v>
       </c>
       <c r="F15">
-        <v>3.815096694267112</v>
+        <v>0.4863366672413534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1789912747157416</v>
+      </c>
+      <c r="I15">
+        <v>0.006771096554947675</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>2.709887543833048</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>1.485710902292425</v>
+        <v>0.09954046903011715</v>
       </c>
       <c r="L15">
-        <v>0.261948200179404</v>
+        <v>0.06068252462717183</v>
       </c>
       <c r="M15">
-        <v>0.3127367830867414</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9122373642333628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.243391680300476</v>
+        <v>5.147495787191644</v>
       </c>
       <c r="C16">
-        <v>0.2298006758673665</v>
+        <v>1.44576117423162</v>
       </c>
       <c r="D16">
-        <v>0.1303143947131709</v>
+        <v>0.183262687932725</v>
       </c>
       <c r="E16">
-        <v>0.03183049553988404</v>
+        <v>0.07821456293793005</v>
       </c>
       <c r="F16">
-        <v>3.636255063828202</v>
+        <v>0.4785644586498776</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1649316037385375</v>
+      </c>
+      <c r="I16">
+        <v>0.0055370064557696</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>2.600889296321895</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>1.383653285892819</v>
+        <v>0.1077473949998815</v>
       </c>
       <c r="L16">
-        <v>0.2479239449166784</v>
+        <v>0.05981238545338208</v>
       </c>
       <c r="M16">
-        <v>0.2927946730284248</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9088698607689309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.189079089542673</v>
+        <v>4.938824486729573</v>
       </c>
       <c r="C17">
-        <v>0.2195506735791071</v>
+        <v>1.400956493575393</v>
       </c>
       <c r="D17">
-        <v>0.1300553346328357</v>
+        <v>0.1924752759164932</v>
       </c>
       <c r="E17">
-        <v>0.03146851344303059</v>
+        <v>0.09067997567290931</v>
       </c>
       <c r="F17">
-        <v>3.528095700043423</v>
+        <v>0.507178356265193</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1265145652966169</v>
+      </c>
+      <c r="I17">
+        <v>0.004958749800263007</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>2.535010956468639</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1.321767638996221</v>
+        <v>0.1154193054969275</v>
       </c>
       <c r="L17">
-        <v>0.2394417411864254</v>
+        <v>0.07031968275676093</v>
       </c>
       <c r="M17">
-        <v>0.2807151886166253</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9672218796772967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.158063143320959</v>
+        <v>4.820273767373124</v>
       </c>
       <c r="C18">
-        <v>0.2136939786715715</v>
+        <v>1.386586616862701</v>
       </c>
       <c r="D18">
-        <v>0.1299065638974994</v>
+        <v>0.219254883887487</v>
       </c>
       <c r="E18">
-        <v>0.03126332636077045</v>
+        <v>0.1220886428474088</v>
       </c>
       <c r="F18">
-        <v>3.466421591909324</v>
+        <v>0.574811289344737</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07363564888584762</v>
+      </c>
+      <c r="I18">
+        <v>0.004547304141666153</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>2.497461160094062</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1.286419531829296</v>
+        <v>0.1251188253231295</v>
       </c>
       <c r="L18">
-        <v>0.2346049637516217</v>
+        <v>0.1020048128295379</v>
       </c>
       <c r="M18">
-        <v>0.2738205106241196</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.094464603521999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147598546859967</v>
+        <v>4.782310394112358</v>
       </c>
       <c r="C19">
-        <v>0.2117173503950198</v>
+        <v>1.406230803469782</v>
       </c>
       <c r="D19">
-        <v>0.1298562235689928</v>
+        <v>0.2613361760196824</v>
       </c>
       <c r="E19">
-        <v>0.03119436026638134</v>
+        <v>0.1743075762639172</v>
       </c>
       <c r="F19">
-        <v>3.445628722658881</v>
+        <v>0.6707018171460959</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.0289824723893588</v>
+      </c>
+      <c r="I19">
+        <v>0.004790143721456808</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>2.484804153579418</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1.274491941327682</v>
+        <v>0.1370229978004929</v>
       </c>
       <c r="L19">
-        <v>0.232974284515592</v>
+        <v>0.1637726727080775</v>
       </c>
       <c r="M19">
-        <v>0.2714948858098936</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.267833014606907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.194837302694168</v>
+        <v>4.971739651673488</v>
       </c>
       <c r="C20">
-        <v>0.2206377071608898</v>
+        <v>1.505391604827537</v>
       </c>
       <c r="D20">
-        <v>0.1300828856025795</v>
+        <v>0.3437481450366278</v>
       </c>
       <c r="E20">
-        <v>0.03150673228513234</v>
+        <v>0.282273288614391</v>
       </c>
       <c r="F20">
-        <v>3.539553179613733</v>
+        <v>0.8488991315658012</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.005407923617171573</v>
+      </c>
+      <c r="I20">
+        <v>0.006039833180981447</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>2.541987981369118</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1.328329505037487</v>
+        <v>0.1554537024789564</v>
       </c>
       <c r="L20">
-        <v>0.2403402866073066</v>
+        <v>0.3060634182193525</v>
       </c>
       <c r="M20">
-        <v>0.2819954934390339</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.581170224976319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.356333572885148</v>
+        <v>5.592120423954213</v>
       </c>
       <c r="C21">
-        <v>0.2510978437156126</v>
+        <v>1.6924801564316</v>
       </c>
       <c r="D21">
-        <v>0.1308479479554592</v>
+        <v>0.3888232818606383</v>
       </c>
       <c r="E21">
-        <v>0.03259315032323507</v>
+        <v>0.3230712150811641</v>
       </c>
       <c r="F21">
-        <v>3.861780159183326</v>
+        <v>0.9264440718463192</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.008737968236172733</v>
+      </c>
+      <c r="I21">
+        <v>0.008907517792375863</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>2.738352701942276</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1.512299933006517</v>
+        <v>0.1471430087483974</v>
       </c>
       <c r="L21">
-        <v>0.2656086588602733</v>
+        <v>0.3530703198374852</v>
       </c>
       <c r="M21">
-        <v>0.3179362224811086</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.699116889257766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.464223284156731</v>
+        <v>5.997925358267139</v>
       </c>
       <c r="C22">
-        <v>0.2714292812717218</v>
+        <v>1.807451441667695</v>
       </c>
       <c r="D22">
-        <v>0.1313522790084818</v>
+        <v>0.4141162292695526</v>
       </c>
       <c r="E22">
-        <v>0.03333273222724387</v>
+        <v>0.3442738574656303</v>
       </c>
       <c r="F22">
-        <v>4.077918304673148</v>
+        <v>0.9729292558165099</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.01124463074006551</v>
+      </c>
+      <c r="I22">
+        <v>0.01082577985444733</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>2.870207323738796</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>1.635152344775719</v>
+        <v>0.1421206704136644</v>
       </c>
       <c r="L22">
-        <v>0.2825536808060605</v>
+        <v>0.3763870296365326</v>
       </c>
       <c r="M22">
-        <v>0.3419780700748376</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.772582184789997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.406407866314737</v>
+        <v>5.781386068775419</v>
       </c>
       <c r="C23">
-        <v>0.2605351705412886</v>
+        <v>1.740494186357864</v>
       </c>
       <c r="D23">
-        <v>0.1310825975180379</v>
+        <v>0.3999679720288043</v>
       </c>
       <c r="E23">
-        <v>0.03293516156060683</v>
+        <v>0.3327939068713803</v>
       </c>
       <c r="F23">
-        <v>3.962014423934676</v>
+        <v>0.9507512575576982</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.009878675667189881</v>
+      </c>
+      <c r="I23">
+        <v>0.009507038425936365</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>2.799487519615525</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>1.569322620951624</v>
+        <v>0.1457227716408767</v>
       </c>
       <c r="L23">
-        <v>0.273467461027181</v>
+        <v>0.364052632291461</v>
       </c>
       <c r="M23">
-        <v>0.3290918332981576</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.740513585576508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.192233367060084</v>
+        <v>4.962194362520563</v>
       </c>
       <c r="C24">
-        <v>0.220146147455651</v>
+        <v>1.497228470761399</v>
       </c>
       <c r="D24">
-        <v>0.1300704293147064</v>
+        <v>0.3476937451600008</v>
       </c>
       <c r="E24">
-        <v>0.03148944447634427</v>
+        <v>0.2897718192312198</v>
       </c>
       <c r="F24">
-        <v>3.534371678534256</v>
+        <v>0.8646527981529033</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.005425566379167468</v>
+      </c>
+      <c r="I24">
+        <v>0.005609125637872303</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>2.538832662635528</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.325362171051779</v>
+        <v>0.1590286783881609</v>
       </c>
       <c r="L24">
-        <v>0.2399339310054245</v>
+        <v>0.3173481737603936</v>
       </c>
       <c r="M24">
-        <v>0.2814165128053645</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.613785853828233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9695819175699398</v>
+        <v>4.079825746202744</v>
       </c>
       <c r="C25">
-        <v>0.1780293112109348</v>
+        <v>1.236896303988487</v>
       </c>
       <c r="D25">
-        <v>0.1289865440912621</v>
+        <v>0.2917555991816982</v>
       </c>
       <c r="E25">
-        <v>0.03004403348374751</v>
+        <v>0.2436875530247775</v>
       </c>
       <c r="F25">
-        <v>3.093236679297206</v>
+        <v>0.7763008422049893</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.002004665798971406</v>
+      </c>
+      <c r="I25">
+        <v>0.002707300586667571</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>2.270515996018702</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1.071457580829332</v>
+        <v>0.1758362817804233</v>
       </c>
       <c r="L25">
-        <v>0.2053403390309825</v>
+        <v>0.2672799741944942</v>
       </c>
       <c r="M25">
-        <v>0.2319851471320185</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.490297502528222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.430320521916769</v>
+        <v>3.436247773345826</v>
       </c>
       <c r="C2">
-        <v>1.033388805749155</v>
+        <v>1.066825629202242</v>
       </c>
       <c r="D2">
-        <v>0.2493247843688096</v>
+        <v>0.2551162307809136</v>
       </c>
       <c r="E2">
-        <v>0.2095582247119481</v>
+        <v>0.2118148112430518</v>
       </c>
       <c r="F2">
-        <v>0.7212094219912331</v>
+        <v>0.6973899279842328</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.000509345670464123</v>
+        <v>0.0006247692326659671</v>
       </c>
       <c r="I2">
-        <v>0.0008799390955722686</v>
+        <v>0.001263258909489196</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.1925951625254285</v>
+        <v>0.1783409108656997</v>
       </c>
       <c r="L2">
-        <v>0.2308372704496477</v>
+        <v>0.1104209589665146</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03532422270137925</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2312757431135495</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.427357291482309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.357899210518184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.989499938854067</v>
+        <v>2.996015167127325</v>
       </c>
       <c r="C3">
-        <v>0.9036689693820108</v>
+        <v>0.9250733776047468</v>
       </c>
       <c r="D3">
-        <v>0.2215672083322033</v>
+        <v>0.2263074049923262</v>
       </c>
       <c r="E3">
-        <v>0.1866912534800207</v>
+        <v>0.1888205014715112</v>
       </c>
       <c r="F3">
-        <v>0.6817726290726398</v>
+        <v>0.6622027478018211</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.603520730817046E-05</v>
+        <v>9.555391821791659E-05</v>
       </c>
       <c r="I3">
-        <v>0.0004618946740975183</v>
+        <v>0.0007058102929073939</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2035726684164594</v>
+        <v>0.1895489315404841</v>
       </c>
       <c r="L3">
-        <v>0.2059901072893666</v>
+        <v>0.1167060187431126</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03838824714235933</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2068504813602701</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.379413805956759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.320345287312477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.718435715196506</v>
+        <v>2.725190533746343</v>
       </c>
       <c r="C4">
-        <v>0.8244672333007941</v>
+        <v>0.8387352368956442</v>
       </c>
       <c r="D4">
-        <v>0.2045934699153236</v>
+        <v>0.2087140520143578</v>
       </c>
       <c r="E4">
-        <v>0.1726668670861571</v>
+        <v>0.174721118488268</v>
       </c>
       <c r="F4">
-        <v>0.6582173210592046</v>
+        <v>0.6411044929216985</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.058978583001746E-05</v>
+        <v>8.174839027930147E-09</v>
       </c>
       <c r="I4">
-        <v>0.0004304665292167442</v>
+        <v>0.0005522854592645565</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.2107486099133347</v>
+        <v>0.1967933581489447</v>
       </c>
       <c r="L4">
-        <v>0.1907185911402394</v>
+        <v>0.1208129584405224</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04080877058620525</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1918283749040839</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.35199752572376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.298857958193111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.607837446501549</v>
+        <v>2.614661490868968</v>
       </c>
       <c r="C5">
-        <v>0.7936328547993128</v>
+        <v>0.8050148558190813</v>
       </c>
       <c r="D5">
-        <v>0.19784757851248</v>
+        <v>0.2017162352925652</v>
       </c>
       <c r="E5">
-        <v>0.166990648005843</v>
+        <v>0.1690135956690959</v>
       </c>
       <c r="F5">
-        <v>0.6480737288206342</v>
+        <v>0.6319626606493358</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.544799172474413E-05</v>
+        <v>1.564192593384028E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005364873280182536</v>
+        <v>0.0006119116152625281</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2135049009895624</v>
+        <v>0.1995855780097848</v>
       </c>
       <c r="L5">
-        <v>0.1844584738177559</v>
+        <v>0.122398460615706</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04189053926194575</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1856687867535953</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.339381095133888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.288661724689121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.589440868163706</v>
+        <v>2.596273104341378</v>
       </c>
       <c r="C6">
-        <v>0.7901612813076895</v>
+        <v>0.8010177309701021</v>
       </c>
       <c r="D6">
-        <v>0.1969193006869716</v>
+        <v>0.2007391065173181</v>
       </c>
       <c r="E6">
-        <v>0.1660935036629034</v>
+        <v>0.1681092099345456</v>
       </c>
       <c r="F6">
-        <v>0.6455433878344081</v>
+        <v>0.6296427533256832</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.663072468815479E-05</v>
+        <v>2.159227285813969E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006450138437203989</v>
+        <v>0.0007283496378400756</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2136366623380006</v>
+        <v>0.1997539250496949</v>
       </c>
       <c r="L6">
-        <v>0.183381312503279</v>
+        <v>0.1224833856256051</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0420321693141843</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1846095097625877</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.334965850966327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.284781933322066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.716877005911613</v>
+        <v>2.723628412637652</v>
       </c>
       <c r="C7">
-        <v>0.8285478524938128</v>
+        <v>0.8426462774314984</v>
       </c>
       <c r="D7">
-        <v>0.2050249916587603</v>
+        <v>0.209122211068788</v>
       </c>
       <c r="E7">
-        <v>0.1727145350502219</v>
+        <v>0.1747626326340992</v>
       </c>
       <c r="F7">
-        <v>0.6557448041386493</v>
+        <v>0.6387757064580484</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.122386996543767E-05</v>
+        <v>9.761080832504376E-12</v>
       </c>
       <c r="I7">
-        <v>0.0006558762634130133</v>
+        <v>0.0008187208719672157</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2098815431403995</v>
+        <v>0.1960194347729303</v>
       </c>
       <c r="L7">
-        <v>0.190532583526398</v>
+        <v>0.1203596241507885</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04068156717710814</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1916474031117374</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.345414299895523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.292704888093596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.278301547551735</v>
+        <v>3.284454837076169</v>
       </c>
       <c r="C8">
-        <v>0.9945665575530711</v>
+        <v>1.023655402912766</v>
       </c>
       <c r="D8">
-        <v>0.2404338922121099</v>
+        <v>0.2458324979436526</v>
       </c>
       <c r="E8">
-        <v>0.2018351930475504</v>
+        <v>0.20403985274109</v>
       </c>
       <c r="F8">
-        <v>0.7043817627909164</v>
+        <v>0.6822463395919627</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.000294086930484827</v>
+        <v>0.0003908174135687226</v>
       </c>
       <c r="I8">
-        <v>0.0009527364073473876</v>
+        <v>0.001348495126829441</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.1951117534724887</v>
+        <v>0.1810992972298209</v>
       </c>
       <c r="L8">
-        <v>0.2221371615369634</v>
+        <v>0.1120045167461452</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03601811843339764</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2227284549354351</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.401928822061279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.336731460514571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.377132055831225</v>
+        <v>4.380983396757188</v>
       </c>
       <c r="C9">
-        <v>1.316085237384641</v>
+        <v>1.376760353880627</v>
       </c>
       <c r="D9">
-        <v>0.3095946712495277</v>
+        <v>0.3177773041906988</v>
       </c>
       <c r="E9">
-        <v>0.2589489679808139</v>
+        <v>0.2614874766503235</v>
       </c>
       <c r="F9">
-        <v>0.8096889595151993</v>
+        <v>0.775908154410601</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.002994141386028493</v>
+        <v>0.003132991296850962</v>
       </c>
       <c r="I9">
-        <v>0.00316163310406381</v>
+        <v>0.003626587327409503</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.1714083283505587</v>
+        <v>0.1562847352243857</v>
       </c>
       <c r="L9">
-        <v>0.2842988721239692</v>
+        <v>0.09829104805794664</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03164260249231532</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2837681866798647</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.541684284250465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.447465208432646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.183911365027086</v>
+        <v>5.185179458042285</v>
       </c>
       <c r="C10">
-        <v>1.55372633729354</v>
+        <v>1.636703965113611</v>
       </c>
       <c r="D10">
-        <v>0.3541155540070093</v>
+        <v>0.3641188936369417</v>
       </c>
       <c r="E10">
-        <v>0.2906656147498836</v>
+        <v>0.2933416808368392</v>
       </c>
       <c r="F10">
-        <v>0.8739508443845381</v>
+        <v>0.8322398769905988</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006467792373941794</v>
+        <v>0.006515290572691512</v>
       </c>
       <c r="I10">
-        <v>0.006279278958435164</v>
+        <v>0.006585133841692681</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.1536839698617705</v>
+        <v>0.1380606457917892</v>
       </c>
       <c r="L10">
-        <v>0.3151033766367277</v>
+        <v>0.08871963539516869</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03039193962613496</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3137633380913627</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.624759693295175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.510729596036271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.5462493099364</v>
+        <v>5.54651740241394</v>
       </c>
       <c r="C11">
-        <v>1.633242150154274</v>
+        <v>1.707942575560253</v>
       </c>
       <c r="D11">
-        <v>0.3151776295540998</v>
+        <v>0.3232512649607315</v>
       </c>
       <c r="E11">
-        <v>0.2204975723990472</v>
+        <v>0.2223973229249552</v>
       </c>
       <c r="F11">
-        <v>0.7642099500118604</v>
+        <v>0.7305371975058037</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02497648795988638</v>
+        <v>0.02497968981830567</v>
       </c>
       <c r="I11">
-        <v>0.007846084846716117</v>
+        <v>0.008151240079219413</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.1262248541008528</v>
+        <v>0.1157245907112507</v>
       </c>
       <c r="L11">
-        <v>0.2139460006622329</v>
+        <v>0.08011692248699376</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02368530745931352</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2129205686259681</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.410580182923638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.319030738630488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.681617458881192</v>
+        <v>5.681641285586011</v>
       </c>
       <c r="C12">
-        <v>1.641741392712788</v>
+        <v>1.704494171609497</v>
       </c>
       <c r="D12">
-        <v>0.2744413444889915</v>
+        <v>0.2806864931314692</v>
       </c>
       <c r="E12">
-        <v>0.1641649664262097</v>
+        <v>0.1654815210899656</v>
       </c>
       <c r="F12">
-        <v>0.6669677082271122</v>
+        <v>0.6408592781362898</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0631875218451512</v>
+        <v>0.06318270801612158</v>
       </c>
       <c r="I12">
-        <v>0.008074288155815346</v>
+        <v>0.008351561323666878</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.1108032350442301</v>
+        <v>0.1038692933309946</v>
       </c>
       <c r="L12">
-        <v>0.1427161864260214</v>
+        <v>0.07624931643994071</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01913881641144144</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1420421266220941</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.231574746830461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.160637268020963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.648668739583286</v>
+        <v>5.649062100023571</v>
       </c>
       <c r="C13">
-        <v>1.603160319813583</v>
+        <v>1.650464755277255</v>
       </c>
       <c r="D13">
-        <v>0.2310536948669437</v>
+        <v>0.2354670583366101</v>
       </c>
       <c r="E13">
-        <v>0.1156800537708165</v>
+        <v>0.1165334204468529</v>
       </c>
       <c r="F13">
-        <v>0.5702587661594052</v>
+        <v>0.5518454796811767</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1181116772266506</v>
+        <v>0.1181241949295782</v>
       </c>
       <c r="I13">
-        <v>0.007559090083549158</v>
+        <v>0.007868888884468461</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.1020896903334361</v>
+        <v>0.09785939278724287</v>
       </c>
       <c r="L13">
-        <v>0.09042667096377599</v>
+        <v>0.07470948917118991</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0157602064621658</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09011736221921396</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.059018974470476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.008826579214755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.549341658297465</v>
+        <v>5.550248600166185</v>
       </c>
       <c r="C14">
-        <v>1.556374398380456</v>
+        <v>1.591367093351892</v>
       </c>
       <c r="D14">
-        <v>0.2002270404800441</v>
+        <v>0.2034083241777012</v>
       </c>
       <c r="E14">
-        <v>0.08691387498356562</v>
+        <v>0.08751751656614815</v>
       </c>
       <c r="F14">
-        <v>0.5036495169372515</v>
+        <v>0.490472741270807</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1667698665606281</v>
+        <v>0.1668026063402266</v>
       </c>
       <c r="I14">
-        <v>0.006963084878687908</v>
+        <v>0.00733322916500434</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.09927314479298177</v>
+        <v>0.09640744231565312</v>
       </c>
       <c r="L14">
-        <v>0.0653678332900931</v>
+        <v>0.07453233523880032</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0141691678848721</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06528889365959678</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9421255028758537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9059892244774801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.489226348911302</v>
+        <v>5.490382162271999</v>
       </c>
       <c r="C15">
-        <v>1.536973449730453</v>
+        <v>1.568244592055692</v>
       </c>
       <c r="D15">
-        <v>0.1920746873826857</v>
+        <v>0.1949376089070398</v>
       </c>
       <c r="E15">
-        <v>0.08040266906592208</v>
+        <v>0.08096051435673601</v>
       </c>
       <c r="F15">
-        <v>0.4863366672413534</v>
+        <v>0.4745460545023263</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1789912747157416</v>
+        <v>0.1790329126455816</v>
       </c>
       <c r="I15">
-        <v>0.006771096554947675</v>
+        <v>0.007188850010331649</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.09954046903011715</v>
+        <v>0.09690708741650256</v>
       </c>
       <c r="L15">
-        <v>0.06068252462717183</v>
+        <v>0.07474539041160688</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01398234377887153</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06066780482691492</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9122373642333628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8797964487731633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.147495787191644</v>
+        <v>5.149815996375764</v>
       </c>
       <c r="C16">
-        <v>1.44576117423162</v>
+        <v>1.470962985510255</v>
       </c>
       <c r="D16">
-        <v>0.183262687932725</v>
+        <v>0.1858622358183766</v>
       </c>
       <c r="E16">
-        <v>0.07821456293793005</v>
+        <v>0.07884960421141329</v>
       </c>
       <c r="F16">
-        <v>0.4785644586498776</v>
+        <v>0.4680678592057319</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1649316037385375</v>
+        <v>0.1650077673214554</v>
       </c>
       <c r="I16">
-        <v>0.0055370064557696</v>
+        <v>0.006075157744280801</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.1077473949998815</v>
+        <v>0.1044988110152536</v>
       </c>
       <c r="L16">
-        <v>0.05981238545338208</v>
+        <v>0.07711196586035085</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01568836539162799</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05995736202557289</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9088698607689309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8794823484818153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.938824486729573</v>
+        <v>4.941733333129207</v>
       </c>
       <c r="C17">
-        <v>1.400956493575393</v>
+        <v>1.427977169777023</v>
       </c>
       <c r="D17">
-        <v>0.1924752759164932</v>
+        <v>0.1954759888194246</v>
       </c>
       <c r="E17">
-        <v>0.09067997567290931</v>
+        <v>0.0914871649490685</v>
       </c>
       <c r="F17">
-        <v>0.507178356265193</v>
+        <v>0.495104044065819</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1265145652966169</v>
+        <v>0.1266038735845285</v>
       </c>
       <c r="I17">
-        <v>0.004958749800263007</v>
+        <v>0.005553265414596886</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.1154193054969275</v>
+        <v>0.1111177904104137</v>
       </c>
       <c r="L17">
-        <v>0.07031968275676093</v>
+        <v>0.07935919166255023</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01762701841378611</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07049761711270008</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9672218796772967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9332351999656225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.820273767373124</v>
+        <v>4.823404170017852</v>
       </c>
       <c r="C18">
-        <v>1.386586616862701</v>
+        <v>1.422421529905819</v>
       </c>
       <c r="D18">
-        <v>0.219254883887487</v>
+        <v>0.2233725943462872</v>
       </c>
       <c r="E18">
-        <v>0.1220886428474088</v>
+        <v>0.1232205551969692</v>
       </c>
       <c r="F18">
-        <v>0.574811289344737</v>
+        <v>0.5580937878611252</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07363564888584762</v>
+        <v>0.07373181058535749</v>
       </c>
       <c r="I18">
-        <v>0.004547304141666153</v>
+        <v>0.005113979574202787</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.1251188253231295</v>
+        <v>0.1189093254830338</v>
       </c>
       <c r="L18">
-        <v>0.1020048128295379</v>
+        <v>0.08233385906208923</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02022583533238542</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1020718569977319</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.094464603521999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.047637726519298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.782310394112358</v>
+        <v>4.785347709464361</v>
       </c>
       <c r="C19">
-        <v>1.406230803469782</v>
+        <v>1.455633467015218</v>
       </c>
       <c r="D19">
-        <v>0.2613361760196824</v>
+        <v>0.2672007927489091</v>
       </c>
       <c r="E19">
-        <v>0.1743075762639172</v>
+        <v>0.1759377999853058</v>
       </c>
       <c r="F19">
-        <v>0.6707018171460959</v>
+        <v>0.6467364558902133</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0289824723893588</v>
+        <v>0.02908376908344934</v>
       </c>
       <c r="I19">
-        <v>0.004790143721456808</v>
+        <v>0.005376412691052934</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.1370229978004929</v>
+        <v>0.1279361410664466</v>
       </c>
       <c r="L19">
-        <v>0.1637726727080775</v>
+        <v>0.08592424074978311</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02350892374621871</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1635458068451854</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.267833014606907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.201295645346192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.971739651673488</v>
+        <v>4.973761906501295</v>
       </c>
       <c r="C20">
-        <v>1.505391604827537</v>
+        <v>1.582104988709318</v>
       </c>
       <c r="D20">
-        <v>0.3437481450366278</v>
+        <v>0.3532013074104867</v>
       </c>
       <c r="E20">
-        <v>0.282273288614391</v>
+        <v>0.2848932133191653</v>
       </c>
       <c r="F20">
-        <v>0.8488991315658012</v>
+        <v>0.8098780885743793</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.005407923617171573</v>
+        <v>0.005488489956511522</v>
       </c>
       <c r="I20">
-        <v>0.006039833180981447</v>
+        <v>0.006561969752749697</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.1554537024789564</v>
+        <v>0.1404591421885755</v>
       </c>
       <c r="L20">
-        <v>0.3060634182193525</v>
+        <v>0.09030705375477055</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02966286903161652</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3049564569745513</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.581170224976319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.474266497896309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.592120423954213</v>
+        <v>5.591711610756022</v>
       </c>
       <c r="C21">
-        <v>1.6924801564316</v>
+        <v>1.790033617822814</v>
       </c>
       <c r="D21">
-        <v>0.3888232818606383</v>
+        <v>0.4002231902403821</v>
       </c>
       <c r="E21">
-        <v>0.3230712150811641</v>
+        <v>0.3259536126009124</v>
       </c>
       <c r="F21">
-        <v>0.9264440718463192</v>
+        <v>0.8788409313835217</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.008737968236172733</v>
+        <v>0.008699963260634408</v>
       </c>
       <c r="I21">
-        <v>0.008907517792375863</v>
+        <v>0.009181480175284307</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.1471430087483974</v>
+        <v>0.1305605517182133</v>
       </c>
       <c r="L21">
-        <v>0.3530703198374852</v>
+        <v>0.0846843901930141</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03092030075455376</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3511848925429319</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.699116889257766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.570151194468622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.997925358267139</v>
+        <v>5.995694722847077</v>
       </c>
       <c r="C22">
-        <v>1.807451441667695</v>
+        <v>1.917866312712874</v>
       </c>
       <c r="D22">
-        <v>0.4141162292695526</v>
+        <v>0.4266620332542459</v>
       </c>
       <c r="E22">
-        <v>0.3442738574656303</v>
+        <v>0.3472783329500828</v>
       </c>
       <c r="F22">
-        <v>0.9729292558165099</v>
+        <v>0.9200082179630868</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01124463074006551</v>
+        <v>0.01109951573128408</v>
       </c>
       <c r="I22">
-        <v>0.01082577985444733</v>
+        <v>0.01081486144040955</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.1421206704136644</v>
+        <v>0.1245267079785233</v>
       </c>
       <c r="L22">
-        <v>0.3763870296365326</v>
+        <v>0.08116509510719716</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03236357820106939</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3740085455036422</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.772582184789997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.629808320081224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.781386068775419</v>
+        <v>5.780151921851086</v>
       </c>
       <c r="C23">
-        <v>1.740494186357864</v>
+        <v>1.844102838980461</v>
       </c>
       <c r="D23">
-        <v>0.3999679720288043</v>
+        <v>0.4119207238030071</v>
       </c>
       <c r="E23">
-        <v>0.3327939068713803</v>
+        <v>0.3357402544079378</v>
       </c>
       <c r="F23">
-        <v>0.9507512575576982</v>
+        <v>0.9004854272988325</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.009878675667189881</v>
+        <v>0.009793380413137463</v>
       </c>
       <c r="I23">
-        <v>0.009507038425936365</v>
+        <v>0.009591999043570887</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.1457227716408767</v>
+        <v>0.1284928656764066</v>
       </c>
       <c r="L23">
-        <v>0.364052632291461</v>
+        <v>0.08326847036931895</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03189326986620422</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3619335446300909</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.740513585576508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.604509323645175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.962194362520563</v>
+        <v>4.964216531016916</v>
       </c>
       <c r="C24">
-        <v>1.497228470761399</v>
+        <v>1.575408989612697</v>
       </c>
       <c r="D24">
-        <v>0.3476937451600008</v>
+        <v>0.3574040305446715</v>
       </c>
       <c r="E24">
-        <v>0.2897718192312198</v>
+        <v>0.2924780640249267</v>
       </c>
       <c r="F24">
-        <v>0.8646527981529033</v>
+        <v>0.8243972154329811</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.005425566379167468</v>
+        <v>0.005506595960609206</v>
       </c>
       <c r="I24">
-        <v>0.005609125637872303</v>
+        <v>0.006033036223075605</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.1590286783881609</v>
+        <v>0.1432915584200689</v>
       </c>
       <c r="L24">
-        <v>0.3173481737603936</v>
+        <v>0.09138164479811195</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03071948917566125</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.316181851563698</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.613785853828233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.503372415449036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.079825746202744</v>
+        <v>4.084443450208994</v>
       </c>
       <c r="C25">
-        <v>1.236896303988487</v>
+        <v>1.288646726796458</v>
       </c>
       <c r="D25">
-        <v>0.2917555991816982</v>
+        <v>0.2991322050025076</v>
       </c>
       <c r="E25">
-        <v>0.2436875530247775</v>
+        <v>0.2461251257742845</v>
       </c>
       <c r="F25">
-        <v>0.7763008422049893</v>
+        <v>0.7460895242473597</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.002004665798971406</v>
+        <v>0.002152310261550383</v>
       </c>
       <c r="I25">
-        <v>0.002707300586667571</v>
+        <v>0.003273709602839681</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.1758362817804233</v>
+        <v>0.1613195433041295</v>
       </c>
       <c r="L25">
-        <v>0.2672799741944942</v>
+        <v>0.1012115314235533</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03190434403665598</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2670716829798891</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.490297502528222</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.40523490349446</v>
       </c>
     </row>
   </sheetData>
